--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="234">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,37 +26,190 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Winston Churchill</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Keyser Söze</t>
+  </si>
+  <si>
+    <t>The Usual Suspects and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>Printing and the Cthulu-Dagon mythos</t>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groundskeeper Willie MacDougal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cleaning floors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lois Lane</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Wagner</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>David Copperfield and the Dagon mythos</t>
+    <t xml:space="preserve">  Piano music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Dean</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Citizen Kane and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a newspaper empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Cabaret singing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing melancholy songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Motor industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
@@ -65,79 +218,370 @@
     <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
   </si>
   <si>
-    <t>Dana Scully</t>
-  </si>
-  <si>
-    <t>The X-Files and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>explaining away the unexplained in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uri Geller</t>
-  </si>
-  <si>
-    <t>Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mentalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Show Business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>The Joker</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about everything in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding imperial storm-troopers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saul Goodman</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>protecting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> representing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Winston Churchill</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Rainier Luftwaffe Wolfcastle</t>
+  </si>
+  <si>
+    <t>making action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Offred</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Handmaid's Tale and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anthony Scaramucci</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making political gaffes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam West</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>wearing tights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edna Krabappel</t>
+  </si>
+  <si>
+    <t>smoking during recess in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> looking for love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ernst Stavro Blofeld</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>British legend and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Weird Al Yankovic</t>
+  </si>
+  <si>
+    <t>Musical Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parody and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing parody songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alfred Nobel</t>
+  </si>
+  <si>
+    <t>Chemistry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting pacifism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>Psycho and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitchcock movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Dawkins</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>explaining evolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sophocles</t>
+  </si>
+  <si>
+    <t>the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tweety Pie</t>
+  </si>
+  <si>
+    <t>Merrie Melodies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>swinging on a perch in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Painting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting melancholy pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edmund Blackadder</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating political pawns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Rwanda and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Seth MacFarlane</t>
+  </si>
+  <si>
+    <t>Family Guy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making vulgar jokes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making vulgar cartoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>the Russian revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>spreading revolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>Violin music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing the violin in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Raiders of the Lost Ark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Archeology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing guitar in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Green Lantern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Ali G</t>
@@ -152,7 +596,43 @@
     <t>interviewing celebrities in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Morgana Le Fay</t>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>Modern poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suicide and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>the Law and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crime and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Fifty Shades of Grey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Merlin</t>
   </si>
   <si>
     <t>British history and the Dagon mythos</t>
@@ -164,571 +644,76 @@
     <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Eric Cartman</t>
-  </si>
-  <si>
-    <t>South Park and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>executing morally appalling plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making racist jibes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>Nuclear Power and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>Investment Funds and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Investments and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Twin Peaks and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>directing weird movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monica Lewinsky</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Clinton Era and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kurt Cobain</t>
-  </si>
-  <si>
-    <t>Grunge music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing grungy music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Morpheus</t>
+    <t>Thomas "Neo" Anderson</t>
   </si>
   <si>
     <t>The Matrix and the Dagon mythos</t>
   </si>
   <si>
-    <t>searching for the messiah in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recruiting dissidents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Novak Djokovic</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>delivering forehand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Vladimir Lenin</t>
-  </si>
-  <si>
-    <t>the Russian revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting communism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for worker's rights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>Die Hard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>organizing armed robberies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Vladimir Putin</t>
-  </si>
-  <si>
-    <t>Modern Russia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bullying neighboring countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Prohibition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing political strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Talk radio and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>avoiding growing old in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>British legend and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling contraband in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sean Penn</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Shylock</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>amassing wealth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Vincent Van Gogh</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Post-Impressionism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting colorful pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing comic books in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>divorcing husbands in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kylo Ren</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> working for the forces of darkness in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting the forces of good in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Playboy Magazine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Political criticism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ranting about politics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about life in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ron Burgundy</t>
-  </si>
-  <si>
-    <t>Anchorman and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reading the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thanos</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>stealing jewels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Longmire</t>
-  </si>
-  <si>
-    <t>Crime fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Detective fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Violet Baudelaire</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>raising a family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Z</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>producing Hipbop records in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sean Hannity</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joe Louis</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rain Man</t>
+  </si>
+  <si>
+    <t>Autism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>counting tooth picks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> counting cards in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stabbing in the back in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t>Borat! and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making documentaries in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -804,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.838762432175579E-6</v>
+        <v>7.017471519938102E-6</v>
       </c>
     </row>
     <row r="3">
@@ -818,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.219068121470091E-6</v>
+        <v>8.470385714357669E-6</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>9.856626246001415E-6</v>
+        <v>1.020096145586441E-5</v>
       </c>
     </row>
     <row r="5">
@@ -843,10 +828,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1794910337203103E-5</v>
+        <v>1.2257288749077716E-5</v>
       </c>
     </row>
     <row r="6">
@@ -854,27 +839,27 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4083858235692007E-5</v>
+        <v>1.469478101524425E-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6780669819915433E-5</v>
+        <v>1.757709949315312E-5</v>
       </c>
     </row>
     <row r="8">
@@ -882,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>1.995067461854821E-5</v>
+        <v>2.0977160184396766E-5</v>
       </c>
     </row>
     <row r="9">
@@ -899,108 +884,108 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>2.3668270562643854E-5</v>
+        <v>2.497822475773848E-5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>2.8017934200778773E-5</v>
+        <v>2.9675075650580502E-5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>3.3095301583241935E-5</v>
+        <v>3.517527419365113E-5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>3.900831770837956E-5</v>
+        <v>4.160049892369086E-5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>4.5878450906586385E-5</v>
+        <v>4.908795932721859E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>5.384196680951694E-5</v>
+        <v>5.7791878069858376E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>6.305125461190958E-5</v>
+        <v>6.788503230894697E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>7.367619618391851E-5</v>
+        <v>7.956034196748987E-5</v>
       </c>
     </row>
     <row r="17">
@@ -1008,13 +993,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>8.590556624112018E-5</v>
+        <v>9.303248987731954E-5</v>
       </c>
     </row>
     <row r="18">
@@ -1022,27 +1007,27 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>9.99484492419236E-5</v>
+        <v>1.0853955549992703E-4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1.1603565597893915E-4</v>
+        <v>1.263446405345847E-4</v>
       </c>
     </row>
     <row r="20">
@@ -1050,13 +1035,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.3442111999105693E-4</v>
+        <v>1.4673746116624037E-4</v>
       </c>
     </row>
     <row r="21">
@@ -1064,27 +1049,27 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.5538325098263185E-4</v>
+        <v>1.7003587804090715E-4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1.7922621944139387E-4</v>
+        <v>1.9658733134678944E-4</v>
       </c>
     </row>
     <row r="23">
@@ -1092,13 +1077,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
       <c r="D23" t="n">
-        <v>2.0628114364991445E-4</v>
+        <v>2.2677014469946232E-4</v>
       </c>
     </row>
     <row r="24">
@@ -1109,99 +1094,99 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
-        <v>2.3690714735073162E-4</v>
+        <v>2.60994657963949E-4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>2.7149225352187875E-4</v>
+        <v>2.9970414579277567E-4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
-        <v>3.1045407712785135E-4</v>
+        <v>3.433754756229563E-4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>3.542402774158334E-4</v>
+        <v>3.9251945627264816E-4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
-        <v>4.033287284216187E-4</v>
+        <v>4.4768082623142637E-4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
-        <v>4.582273649297538E-4</v>
+        <v>5.094378293764245E-4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>5.194736602990723E-4</v>
+        <v>5.784013252972359E-4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -1210,12 +1195,12 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5.876336924168796E-4</v>
+        <v>6.552133818083592E-4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -1224,68 +1209,68 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>6.63300754682984E-4</v>
+        <v>7.40545298689348E-4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>7.470934704420368E-4</v>
+        <v>8.350950143424813E-4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>8.39653371766445E-4</v>
+        <v>9.395838509925402E-4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>9.416419070194743E-4</v>
+        <v>0.0010547525593680987</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0010537368462605482</v>
+        <v>0.0011813566305575382</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -1294,329 +1279,329 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0011766280593389512</v>
+        <v>0.0013201608509710548</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0013110126484820288</v>
+        <v>0.0014719330860658124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001457589425319079</v>
+        <v>0.0016374372896856663</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0016170527315705514</v>
+        <v>0.001817425748460385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0017900856130131666</v>
+        <v>0.0020126305846011917</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0019773523677238634</v>
+        <v>0.002223754555467767</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002179490501885123</v>
+        <v>0.002451461204281951</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0023971021394532145</v>
+        <v>0.0026963644330746</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002630744945557123</v>
+        <v>0.0029590175861099847</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002880922637393587</v>
+        <v>0.003239902149308818</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003148075170368258</v>
+        <v>0.003539416188222913</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0034325687010174633</v>
+        <v>0.003857862663532177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.003734685441536323</v>
+        <v>0.004195437778405142</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0040546135332269265</v>
+        <v>0.004552219525981893</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>0.004392437077516076</v>
+        <v>0.004928156617247825</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004748126473061498</v>
+        <v>0.005323057979264967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005121529215525389</v>
+        <v>0.005736583020676034</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D54" t="n">
-        <v>0.005512361322526971</v>
+        <v>0.006168232865249035</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005920199549809102</v>
+        <v>0.0066173427545822006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006344474565436686</v>
+        <v>0.007083075817749196</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00678446524678844</v>
+        <v>0.007564418398284034</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0072392942598249466</v>
+        <v>0.008060177117463041</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>0.007707925071706256</v>
+        <v>0.008568977837176361</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008189160536045903</v>
+        <v>0.00908926666586507</v>
       </c>
     </row>
     <row r="61">
@@ -1624,251 +1609,251 @@
         <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00868164317503739</v>
+        <v>0.009619313127185225</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>0.009183857264409956</v>
+        <v>0.010157215583416146</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009694132805816158</v>
+        <v>0.010700908974553336</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>0.010210651447067731</v>
+        <v>0.011248174899929853</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>0.010731454383934025</v>
+        <v>0.01179665403260799</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>0.011254452248356084</v>
+        <v>0.012343860818350927</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>0.011777436957396858</v>
+        <v>0.012887200371360041</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0.012298095465537173</v>
+        <v>0.013423987438968887</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.012814025330621481</v>
+        <v>0.013951467267896756</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>0.013322751971458768</v>
+        <v>0.014466838166334817</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>0.013821747463441503</v>
+        <v>0.014967275519946366</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>0.014308450688224617</v>
+        <v>0.015449956986596292</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0147802886251307</v>
+        <v>0.015912088565157134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
-        <v>0.015234698546213232</v>
+        <v>0.01635093120877612</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
-        <v>0.015669150854365765</v>
+        <v>0.01676382763322043</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>0.016081172285129647</v>
+        <v>0.017148228956951922</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>0.016468369178376074</v>
+        <v>0.017501720801841092</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.016828450516274657</v>
+        <v>0.01782204848229782</v>
       </c>
     </row>
     <row r="79">
@@ -1876,13 +1861,13 @@
         <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>0.017159250419235134</v>
+        <v>0.018107140916228656</v>
       </c>
     </row>
     <row r="80">
@@ -1890,27 +1875,27 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01745874979203163</v>
+        <v>0.01835513290372419</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01772509681823771</v>
+        <v>0.018564385438557388</v>
       </c>
     </row>
     <row r="82">
@@ -1918,13 +1903,13 @@
         <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>0.017956626012422025</v>
+        <v>0.018733503743257836</v>
       </c>
     </row>
     <row r="83">
@@ -1932,27 +1917,27 @@
         <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01815187555613275</v>
+        <v>0.018861352750214153</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.018309602665359</v>
+        <v>0.01894706978846155</v>
       </c>
     </row>
     <row r="85">
@@ -1960,13 +1945,13 @@
         <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.018428796763525192</v>
+        <v>0.018990074277792646</v>
       </c>
     </row>
     <row r="86">
@@ -1974,27 +1959,27 @@
         <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.018508690264697283</v>
+        <v>0.018990074277792465</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>0.018548766806047317</v>
+        <v>0.018947069788461564</v>
       </c>
     </row>
     <row r="88">
@@ -2002,13 +1987,13 @@
         <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
-        <v>0.018548766806047317</v>
+        <v>0.018861352750213972</v>
       </c>
     </row>
     <row r="89">
@@ -2016,27 +2001,27 @@
         <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>0.018508690264697283</v>
+        <v>0.018733503743257822</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.018428796763525192</v>
+        <v>0.01856438543855775</v>
       </c>
     </row>
     <row r="91">
@@ -2044,13 +2029,13 @@
         <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.018309602665359123</v>
+        <v>0.018355132903724022</v>
       </c>
     </row>
     <row r="92">
@@ -2058,27 +2043,27 @@
         <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01815187555613247</v>
+        <v>0.018107140916228656</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.017956626012422094</v>
+        <v>0.01782204848229768</v>
       </c>
     </row>
     <row r="94">
@@ -2086,69 +2071,69 @@
         <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0177250968182376</v>
+        <v>0.017501720801841064</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>0.017458749792031686</v>
+        <v>0.017148228956952255</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
-        <v>0.017159250419235272</v>
+        <v>0.016763827633220346</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>0.016828450516274657</v>
+        <v>0.016350931208776093</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.016468369178376074</v>
+        <v>0.015912088565157106</v>
       </c>
     </row>
     <row r="99">
@@ -2156,13 +2141,13 @@
         <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.016081172285129647</v>
+        <v>0.015449956986596125</v>
       </c>
     </row>
     <row r="100">
@@ -2170,27 +2155,27 @@
         <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.015669150854365765</v>
+        <v>0.014967275519946643</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D101" t="n">
-        <v>0.015234698546213232</v>
+        <v>0.014466838166334817</v>
       </c>
     </row>
     <row r="102">
@@ -2198,111 +2183,111 @@
         <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D102" t="n">
-        <v>0.014780288625130977</v>
+        <v>0.013951467267896644</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D103" t="n">
-        <v>0.014308450688224228</v>
+        <v>0.013423987438968887</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>0.013821747463441392</v>
+        <v>0.012887200371359875</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>0.013322751971458768</v>
+        <v>0.012343860818351204</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.012814025330621648</v>
+        <v>0.01179665403260799</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.012298095465537229</v>
+        <v>0.011248174899929742</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.011777436957396858</v>
+        <v>0.010700908974553336</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.011254452248356084</v>
+        <v>0.010157215583416146</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +2295,13 @@
         <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.010731454383934025</v>
+        <v>0.00961931312718517</v>
       </c>
     </row>
     <row r="111">
@@ -2324,27 +2309,27 @@
         <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>0.010210651447067731</v>
+        <v>0.009089266665865237</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>0.009694132805816325</v>
+        <v>0.008568977837176361</v>
       </c>
     </row>
     <row r="113">
@@ -2352,13 +2337,13 @@
         <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0091838572644099</v>
+        <v>0.008060177117463041</v>
       </c>
     </row>
     <row r="114">
@@ -2366,27 +2351,27 @@
         <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.008681643175037168</v>
+        <v>0.0075644183982837565</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D115" t="n">
-        <v>0.008189160536045959</v>
+        <v>0.007083075817749307</v>
       </c>
     </row>
     <row r="116">
@@ -2394,517 +2379,517 @@
         <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D116" t="n">
-        <v>0.007707925071706367</v>
+        <v>0.006617342754582367</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>0.007239294259824891</v>
+        <v>0.006168232865249035</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00678446524678844</v>
+        <v>0.005736583020675756</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D119" t="n">
-        <v>0.006344474565436686</v>
+        <v>0.005323057979265022</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005920199549809102</v>
+        <v>0.004928156617248103</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005512361322526971</v>
+        <v>0.004552219525981727</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005121529215525389</v>
+        <v>0.004195437778405253</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0047481264730615536</v>
+        <v>0.003857862663532108</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>0.004392437077515909</v>
+        <v>0.003539416188222941</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D125" t="n">
-        <v>0.004054613533226996</v>
+        <v>0.003239902149308787</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D126" t="n">
-        <v>0.00373468544153633</v>
+        <v>0.0029590175861099882</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0034325687010174077</v>
+        <v>0.0026963644330746696</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D128" t="n">
-        <v>0.003148075170368348</v>
+        <v>0.002451461204281951</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D129" t="n">
-        <v>0.002880922637393587</v>
+        <v>0.0022237545554677357</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>0.002630744945557123</v>
+        <v>0.002012630584601164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0023971021394532145</v>
+        <v>0.0018174257484604387</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.002179490501885123</v>
+        <v>0.0016374372896856716</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0019773523677238634</v>
+        <v>0.0014719330860658124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0017900856130131666</v>
+        <v>0.0013201608509710513</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0016170527315705306</v>
+        <v>0.0011813566305575226</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0014575894253190669</v>
+        <v>0.00105475255936809</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0013110126484820357</v>
+        <v>9.39583850992568E-4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0011766280593389772</v>
+        <v>8.350950143424813E-4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0010537368462605482</v>
+        <v>7.405452986893385E-4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>9.416419070194743E-4</v>
+        <v>6.552133818083575E-4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>8.39653371766445E-4</v>
+        <v>5.784013252972415E-4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>7.470934704420368E-4</v>
+        <v>5.094378293764197E-4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>6.63300754682984E-4</v>
+        <v>4.476808262314368E-4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>5.876336924168796E-4</v>
+        <v>3.9251945627264816E-4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>5.194736602990636E-4</v>
+        <v>3.433754756229563E-4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
-        <v>4.58227364929759E-4</v>
+        <v>2.997041457927683E-4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>4.0332872842161784E-4</v>
+        <v>2.6099465796395336E-4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D148" t="n">
-        <v>3.542402774158377E-4</v>
+        <v>2.2677014469946535E-4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>3.1045407712785135E-4</v>
+        <v>1.9658733134678944E-4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
-        <v>2.7149225352187875E-4</v>
+        <v>1.7003587804090455E-4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D151" t="n">
-        <v>2.3690714735073162E-4</v>
+        <v>1.467374611662407E-4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
-        <v>2.0628114364991445E-4</v>
+        <v>1.2634464053458568E-4</v>
       </c>
     </row>
     <row r="153">
@@ -2912,13 +2897,13 @@
         <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>1.7922621944139387E-4</v>
+        <v>1.0853955549992519E-4</v>
       </c>
     </row>
     <row r="154">
@@ -2926,27 +2911,27 @@
         <v>210</v>
       </c>
       <c r="B154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D154" t="n">
-        <v>1.5538325098263185E-4</v>
+        <v>9.303248987732268E-5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1.3442111999105693E-4</v>
+        <v>7.956034196748856E-5</v>
       </c>
     </row>
     <row r="156">
@@ -2954,13 +2939,13 @@
         <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1.1603565597893785E-4</v>
+        <v>6.788503230894827E-5</v>
       </c>
     </row>
     <row r="157">
@@ -2968,27 +2953,27 @@
         <v>214</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>9.99484492419237E-5</v>
+        <v>5.779187806985691E-5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D158" t="n">
-        <v>8.590556624112137E-5</v>
+        <v>4.9087959327219564E-5</v>
       </c>
     </row>
     <row r="159">
@@ -2996,13 +2981,13 @@
         <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D159" t="n">
-        <v>7.367619618391851E-5</v>
+        <v>4.160049892369135E-5</v>
       </c>
     </row>
     <row r="160">
@@ -3010,27 +2995,27 @@
         <v>218</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D160" t="n">
-        <v>6.305125461190958E-5</v>
+        <v>3.517527419365113E-5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>5.384196680951694E-5</v>
+        <v>2.967507565058007E-5</v>
       </c>
     </row>
     <row r="162">
@@ -3038,60 +3023,60 @@
         <v>222</v>
       </c>
       <c r="B162" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>4.5878450906586385E-5</v>
+        <v>2.497822475773867E-5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B163" t="s">
         <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>3.900831770837956E-5</v>
+        <v>2.097716018439636E-5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>3.3095301583241935E-5</v>
+        <v>1.757709949315377E-5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>2.8017934200778773E-5</v>
+        <v>1.469478101524425E-5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B166" t="s">
         <v>229</v>
@@ -3100,105 +3085,49 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>2.3668270562644084E-5</v>
+        <v>1.2257288749077526E-5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D167" t="n">
-        <v>1.9950674618547803E-5</v>
+        <v>1.0200961455864424E-5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
         <v>232</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D168" t="n">
-        <v>1.6780669819915352E-5</v>
+        <v>8.470385714357743E-6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B169" t="s">
         <v>233</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D169" t="n">
-        <v>1.4083858235692048E-5</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>231</v>
-      </c>
-      <c r="B170" t="s">
-        <v>234</v>
-      </c>
-      <c r="C170" t="s">
-        <v>23</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.179491033720332E-5</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>235</v>
-      </c>
-      <c r="B171" t="s">
-        <v>236</v>
-      </c>
-      <c r="C171" t="s">
-        <v>23</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9.856626246001415E-6</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>235</v>
-      </c>
-      <c r="B172" t="s">
-        <v>237</v>
-      </c>
-      <c r="C172" t="s">
-        <v>23</v>
-      </c>
-      <c r="D172" t="n">
-        <v>8.219068121470091E-6</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>235</v>
-      </c>
-      <c r="B173" t="s">
-        <v>238</v>
-      </c>
-      <c r="C173" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" t="n">
-        <v>6.838762432175579E-6</v>
+        <v>7.017471519938204E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -26,694 +26,694 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Bill O'Reilly</t>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Music industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting pop music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael O'Leary</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King David</t>
+  </si>
+  <si>
+    <t>the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tomás de Torquemada</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sergey Brin</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>English soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Romeo Montague</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>fighting in duels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Dawkins</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>explaining evolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>Nuclear Power and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Nelson Muntz</t>
+  </si>
+  <si>
+    <t>bullying schoolkids in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stealing lunch money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Constantine</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellraiser and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Commander Data</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sylvester Stallone</t>
+  </si>
+  <si>
+    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joe Louis</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Phoebe Buffay</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing parody songs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing goofy songs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johnny Carson</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baroque music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religious music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jared Kushner</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Cross-Dressing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>Transformers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autobots and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting decepticons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Biology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Double Helix and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing about history in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeffrey Lebowski</t>
+  </si>
+  <si>
+    <t>Bowling and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going bowling in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drinking White Russians in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Cratchit</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Peanuts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing baseball in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Big business and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern finance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> giving investment advice in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>Tomb Raider and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>Only Fools and Horses  and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Professor Hans Zarkov</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>building rocket ships in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arthur Dent</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hitchhikers Guide to The Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Bannon</t>
   </si>
   <si>
     <t>the Right and the Cthulu mythos</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> American politics and the Cthulu mythos</t>
   </si>
   <si>
-    <t>Winston Churchill</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>The Usual Suspects and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cleaning floors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lois Lane</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Wagner</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Piano music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Dean</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Citizen Kane and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a newspaper empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Cabaret singing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing melancholy songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Motor industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ebenezer Scrooge</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Rainier Luftwaffe Wolfcastle</t>
-  </si>
-  <si>
-    <t>making action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Offred</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Handmaid's Tale and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anthony Scaramucci</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making political gaffes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam West</t>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chemistry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dancing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>dancing to disco music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gordon Gekko</t>
+  </si>
+  <si>
+    <t>Wall Street and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting greed in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting capitalism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>promoting boxing fights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
   </si>
   <si>
     <t>Comedy and the Cthulu mythos</t>
   </si>
   <si>
-    <t>wearing tights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
-  </si>
-  <si>
-    <t>smoking during recess in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> looking for love in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ernst Stavro Blofeld</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>British legend and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Weird Al Yankovic</t>
-  </si>
-  <si>
-    <t>Musical Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parody and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing parody songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alfred Nobel</t>
-  </si>
-  <si>
-    <t>Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting pacifism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the Earth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>Psycho and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hitchcock movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Dawkins</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>explaining evolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sophocles</t>
-  </si>
-  <si>
-    <t>the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tweety Pie</t>
-  </si>
-  <si>
-    <t>Merrie Melodies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>swinging on a perch in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Painting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edmund Blackadder</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating political pawns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Rwanda and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Seth MacFarlane</t>
-  </si>
-  <si>
-    <t>Family Guy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making vulgar jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making vulgar cartoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>the Russian revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>spreading revolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thanos</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> striving for world domination in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>Violin music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing the violin in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chelsea Manning</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Raiders of the Lost Ark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Archeology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Green Lantern</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Stan Lee</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comic books in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Popeye</t>
+  </si>
+  <si>
+    <t>Thimble Theatre and the Dagon mythos</t>
   </si>
   <si>
     <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>Ali G Indahouse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>Modern poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suicide and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>the Law and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crime and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Fifty Shades of Grey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Louis</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rain Man</t>
-  </si>
-  <si>
-    <t>Autism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>counting tooth picks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> counting cards in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stabbing in the back in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Borat! and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making documentaries in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>the Natural Sciences and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>Modern medicine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making sick people laugh in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>biting opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Aquinas</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>teaching philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>Baywatch and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>monetizing physical assets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>posing for photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>Romantic novels and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing romantic fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>3.517527419365113E-5</v>
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>4.160049892369086E-5</v>
@@ -940,7 +940,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>4.908795932721859E-5</v>
@@ -954,7 +954,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>5.7791878069858376E-5</v>
@@ -968,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>6.788503230894697E-5</v>
@@ -982,7 +982,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>7.956034196748987E-5</v>
@@ -1038,7 +1038,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
         <v>1.4673746116624037E-4</v>
@@ -1052,7 +1052,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>1.7003587804090715E-4</v>
@@ -1066,7 +1066,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
         <v>1.9658733134678944E-4</v>
@@ -1080,7 +1080,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>2.2677014469946232E-4</v>
@@ -1091,10 +1091,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>2.60994657963949E-4</v>
@@ -1105,10 +1105,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>2.9970414579277567E-4</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
         <v>3.433754756229563E-4</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>3.9251945627264816E-4</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>4.4768082623142637E-4</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
         <v>5.094378293764245E-4</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1189,10 +1189,10 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
         <v>6.552133818083592E-4</v>
@@ -1203,10 +1203,10 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
         <v>7.40545298689348E-4</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -1231,7 +1231,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -1245,7 +1245,7 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
         <v>0.0011813566305575382</v>
@@ -1273,10 +1273,10 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D37" t="n">
         <v>0.0013201608509710548</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D38" t="n">
         <v>0.0014719330860658124</v>
@@ -1298,13 +1298,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
         <v>0.0016374372896856663</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
         <v>0.001817425748460385</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
         <v>0.0020126305846011917</v>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
         <v>0.002223754555467767</v>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
         <v>0.002451461204281951</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
         <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
         <v>0.003539416188222913</v>
@@ -1424,13 +1424,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
         <v>0.003857862663532177</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
         <v>0.004195437778405142</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D50" t="n">
         <v>0.004552219525981893</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
         <v>72</v>
       </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D51" t="n">
         <v>0.004928156617247825</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
         <v>0.005323057979264967</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D53" t="n">
         <v>0.005736583020676034</v>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
         <v>0.006168232865249035</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D55" t="n">
         <v>0.0066173427545822006</v>
@@ -1536,13 +1536,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
         <v>0.007083075817749196</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D57" t="n">
         <v>0.007564418398284034</v>
@@ -1564,13 +1564,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D58" t="n">
         <v>0.008060177117463041</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
         <v>0.008568977837176361</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
         <v>86</v>
-      </c>
-      <c r="B61" t="s">
-        <v>88</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>0.010157215583416146</v>
@@ -1634,13 +1634,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
         <v>89</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
         <v>0.010700908974553336</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
         <v>0.011248174899929853</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D65" t="n">
         <v>0.01179665403260799</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
         <v>0.012343860818350927</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D67" t="n">
         <v>0.012887200371360041</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
         <v>0.013423987438968887</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
         <v>97</v>
       </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
         <v>0.013951467267896756</v>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
         <v>0.014466838166334817</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
         <v>100</v>
       </c>
-      <c r="B71" t="s">
-        <v>102</v>
-      </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
         <v>0.014967275519946366</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
         <v>0.015449956986596292</v>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
         <v>0.015912088565157134</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
         <v>0.01635093120877612</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
         <v>0.01676382763322043</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
         <v>0.017148228956951922</v>
@@ -1833,10 +1833,10 @@
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
         <v>0.017501720801841092</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
         <v>110</v>
-      </c>
-      <c r="B79" t="s">
-        <v>112</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D80" t="n">
         <v>0.01835513290372419</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D81" t="n">
         <v>0.018564385438557388</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
         <v>114</v>
       </c>
-      <c r="B82" t="s">
-        <v>116</v>
-      </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D82" t="n">
         <v>0.018733503743257836</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
         <v>0.01894706978846155</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
         <v>118</v>
       </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
         <v>0.018990074277792646</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D86" t="n">
         <v>0.018990074277792465</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D87" t="n">
         <v>0.018947069788461564</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" t="s">
         <v>122</v>
       </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D88" t="n">
         <v>0.018861352750213972</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
         <v>0.018733503743257822</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
         <v>126</v>
-      </c>
-      <c r="B91" t="s">
-        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
         <v>130</v>
-      </c>
-      <c r="B94" t="s">
-        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D95" t="n">
         <v>0.017148228956952255</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s">
         <v>133</v>
       </c>
-      <c r="B96" t="s">
-        <v>135</v>
-      </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D96" t="n">
         <v>0.016763827633220346</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D97" t="n">
         <v>0.016350931208776093</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D98" t="n">
         <v>0.015912088565157106</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s">
         <v>137</v>
       </c>
-      <c r="B99" t="s">
-        <v>139</v>
-      </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D99" t="n">
         <v>0.015449956986596125</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D100" t="n">
         <v>0.014967275519946643</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D101" t="n">
         <v>0.014466838166334817</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" t="s">
         <v>141</v>
       </c>
-      <c r="B102" t="s">
-        <v>143</v>
-      </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D102" t="n">
         <v>0.013951467267896644</v>
@@ -2194,13 +2194,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D103" t="n">
         <v>0.013423987438968887</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" t="s">
         <v>144</v>
-      </c>
-      <c r="B104" t="s">
-        <v>146</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D106" t="n">
         <v>0.01179665403260799</v>
@@ -2250,13 +2250,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" t="s">
         <v>148</v>
       </c>
-      <c r="B107" t="s">
-        <v>150</v>
-      </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D107" t="n">
         <v>0.011248174899929742</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
         <v>0.010700908974553336</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
         <v>0.010157215583416146</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
         <v>152</v>
       </c>
-      <c r="B110" t="s">
-        <v>154</v>
-      </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D110" t="n">
         <v>0.00961931312718517</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D111" t="n">
         <v>0.009089266665865237</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D112" t="n">
         <v>0.008568977837176361</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
         <v>156</v>
       </c>
-      <c r="B113" t="s">
-        <v>158</v>
-      </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D113" t="n">
         <v>0.008060177117463041</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D114" t="n">
         <v>0.0075644183982837565</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D115" t="n">
         <v>0.007083075817749307</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
         <v>160</v>
       </c>
-      <c r="B116" t="s">
-        <v>162</v>
-      </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D116" t="n">
         <v>0.006617342754582367</v>
@@ -2390,13 +2390,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D117" t="n">
         <v>0.006168232865249035</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" t="s">
         <v>163</v>
-      </c>
-      <c r="B118" t="s">
-        <v>165</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D119" t="n">
         <v>0.005323057979265022</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" t="s">
         <v>166</v>
       </c>
-      <c r="B120" t="s">
-        <v>168</v>
-      </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D120" t="n">
         <v>0.004928156617248103</v>
@@ -2446,13 +2446,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D121" t="n">
         <v>0.004552219525981727</v>
@@ -2460,13 +2460,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D122" t="n">
         <v>0.004195437778405253</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" t="s">
         <v>170</v>
       </c>
-      <c r="B123" t="s">
-        <v>172</v>
-      </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D123" t="n">
         <v>0.003857862663532108</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D124" t="n">
         <v>0.003539416188222941</v>
@@ -2502,13 +2502,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
         <v>0.003239902149308787</v>
@@ -2516,13 +2516,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" t="s">
         <v>174</v>
       </c>
-      <c r="B126" t="s">
-        <v>176</v>
-      </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
         <v>0.0029590175861099882</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>0.0026963644330746696</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
         <v>0.002451461204281951</v>
@@ -2558,13 +2558,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" t="s">
         <v>178</v>
       </c>
-      <c r="B129" t="s">
-        <v>180</v>
-      </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
         <v>0.0022237545554677357</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
         <v>0.002012630584601164</v>
@@ -2586,13 +2586,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
         <v>0.0018174257484604387</v>
@@ -2600,13 +2600,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
         <v>182</v>
       </c>
-      <c r="B132" t="s">
-        <v>184</v>
-      </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
         <v>0.0016374372896856716</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
         <v>0.0014719330860658124</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>184</v>
+      </c>
+      <c r="B135" t="s">
         <v>186</v>
-      </c>
-      <c r="B135" t="s">
-        <v>188</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D137" t="n">
         <v>9.39583850992568E-4</v>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" t="s">
         <v>190</v>
       </c>
-      <c r="B138" t="s">
-        <v>192</v>
-      </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D138" t="n">
         <v>8.350950143424813E-4</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D139" t="n">
         <v>7.405452986893385E-4</v>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -2729,7 +2729,7 @@
         <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
@@ -2743,7 +2743,7 @@
         <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
@@ -2754,10 +2754,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
@@ -2771,10 +2771,10 @@
         <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
         <v>3.9251945627264816E-4</v>
@@ -2785,10 +2785,10 @@
         <v>198</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
         <v>3.433754756229563E-4</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -2813,10 +2813,10 @@
         <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D147" t="n">
         <v>2.6099465796395336E-4</v>
@@ -2827,10 +2827,10 @@
         <v>202</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D148" t="n">
         <v>2.2677014469946535E-4</v>
@@ -2838,13 +2838,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D149" t="n">
         <v>1.9658733134678944E-4</v>
@@ -2855,10 +2855,10 @@
         <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
         <v>1.7003587804090455E-4</v>
@@ -2869,10 +2869,10 @@
         <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
         <v>1.467374611662407E-4</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
         <v>1.2634464053458568E-4</v>
@@ -2897,7 +2897,7 @@
         <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
@@ -2911,7 +2911,7 @@
         <v>210</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155" t="s">
         <v>214</v>
       </c>
-      <c r="B155" t="s">
-        <v>215</v>
-      </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
         <v>7.956034196748856E-5</v>
@@ -2936,13 +2936,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D156" t="n">
         <v>6.788503230894827E-5</v>
@@ -2950,13 +2950,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D157" t="n">
         <v>5.779187806985691E-5</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" t="s">
         <v>218</v>
       </c>
-      <c r="B158" t="s">
-        <v>219</v>
-      </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
         <v>4.9087959327219564E-5</v>
@@ -2978,13 +2978,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
         <v>4.160049892369135E-5</v>
@@ -2992,13 +2992,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B160" t="s">
         <v>221</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D160" t="n">
         <v>3.517527419365113E-5</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" t="s">
         <v>222</v>
-      </c>
-      <c r="B161" t="s">
-        <v>223</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
         <v>225</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164" t="s">
         <v>226</v>
-      </c>
-      <c r="B164" t="s">
-        <v>227</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3076,13 +3076,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
         <v>229</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D166" t="n">
         <v>1.2257288749077526E-5</v>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="231">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,19 +26,661 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Simon Cowell</t>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Count Dracula</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Professor Charles Xavier</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching young mutants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Salvador Dali</t>
+  </si>
+  <si>
+    <t>Surrealism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting surreal pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Printing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>collecting fossils in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Byron</t>
+  </si>
+  <si>
+    <t>English poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Talk radio and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing guitar in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert E. Lee</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning battles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making ice sculptures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff Sessions</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Heavy Metal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>composing classical music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>Curb Your Enthusiasm and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing TV comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>the Beat generation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing beat fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Principal Seymour Skinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>disciplining students in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chemistry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
   </si>
   <si>
     <t>Reality TV and the Cthulu mythos</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Music industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting pop music in Cthulhu-worshipping societies</t>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Gruber</t>
+  </si>
+  <si>
+    <t>Die Hard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>organizing armed robberies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tomás de Torquemada</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making bad movie choices in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Louis Pasteur</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying science in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Turing</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crypography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Lindbergh</t>
+  </si>
+  <si>
+    <t>Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying airplanes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about history in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Directing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suspense and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making suspense movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Facebook and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Violet Baudelaire</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Weird Al Yankovic</t>
+  </si>
+  <si>
+    <t>Musical Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parody and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing parody songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lt. George Colthurst St Barleigh</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Paris Hilton</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a communist country in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>Nickelodeon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a fast-food business in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Becky Sharp</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>suppressing violent urges in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>Modern medicine and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making sick people laugh in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sun Tzu</t>
+  </si>
+  <si>
+    <t>The Art of War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edna Krabappel</t>
+  </si>
+  <si>
+    <t>smoking during recess in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> looking for love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>General George Patton</t>
+  </si>
+  <si>
+    <t>War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>slapping soldiers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Michael O'Leary</t>
@@ -53,667 +695,16 @@
     <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Larry Flynt</t>
-  </si>
-  <si>
-    <t>Hustler Magazine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King David</t>
-  </si>
-  <si>
-    <t>the Old Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sergey Brin</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>English soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr.</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Romeo Montague</t>
-  </si>
-  <si>
-    <t>Romeo and Juliet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>fighting in duels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Dawkins</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>explaining evolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Montgomery Burns</t>
-  </si>
-  <si>
-    <t>Nuclear Power and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stealing lunch money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Constantine</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hellraiser and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Commander Data</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Louis</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Phoebe Buffay</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing parody songs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing goofy songs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Carson</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baroque music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Religious music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jared Kushner</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Cross-Dressing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Optimus Prime</t>
-  </si>
-  <si>
-    <t>Transformers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autobots and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting decepticons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Biology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DNA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Double Helix and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing about history in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeffrey Lebowski</t>
-  </si>
-  <si>
-    <t>Bowling and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going bowling in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> drinking White Russians in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Peanuts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing baseball in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>Big business and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern finance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving investment advice in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lara Croft</t>
-  </si>
-  <si>
-    <t>Tomb Raider and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>unearthing ancient tombs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>Only Fools and Horses  and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Professor Hans Zarkov</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>building rocket ships in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Zac Efron</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arthur Dent</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hitchhikers Guide to The Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Bannon</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dancing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>dancing to disco music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gordon Gekko</t>
-  </si>
-  <si>
-    <t>Wall Street and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting greed in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting capitalism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>promoting boxing fights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing comic books in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Popeye</t>
-  </si>
-  <si>
-    <t>Thimble Theatre and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>the Natural Sciences and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Evolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Patch Adams</t>
-  </si>
-  <si>
-    <t>Modern medicine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making sick people laugh in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>biting opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Aquinas</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>teaching philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>Baywatch and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>monetizing physical assets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>posing for photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jane Austen</t>
-  </si>
-  <si>
-    <t>Romantic novels and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romantic literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing romantic fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>Marco Pierre White</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -789,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7.017471519938102E-6</v>
+        <v>7.205740386587803E-6</v>
       </c>
     </row>
     <row r="3">
@@ -803,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.470385714357669E-6</v>
+        <v>8.737133896178983E-6</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.020096145586441E-5</v>
+        <v>1.056881161373758E-5</v>
       </c>
     </row>
     <row r="5">
@@ -831,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2257288749077716E-5</v>
+        <v>1.275410850639747E-5</v>
       </c>
     </row>
     <row r="6">
@@ -845,147 +836,147 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.469478101524425E-5</v>
+        <v>1.5354682594583195E-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.757709949315312E-5</v>
+        <v>1.844159008463168E-5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0977160184396766E-5</v>
+        <v>2.2096458386996044E-5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.497822475773848E-5</v>
+        <v>2.6412758603970376E-5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.9675075650580502E-5</v>
+        <v>3.149717757766019E-5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>3.517527419365113E-5</v>
+        <v>3.7471087794166543E-5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>4.160049892369086E-5</v>
+        <v>4.447211132547297E-5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>4.908795932721859E-5</v>
+        <v>5.265577154313139E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>5.7791878069858376E-5</v>
+        <v>6.219722354990645E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>6.788503230894697E-5</v>
+        <v>7.329305114747226E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>7.956034196748987E-5</v>
+        <v>8.616311469854211E-5</v>
       </c>
     </row>
     <row r="17">
@@ -993,153 +984,153 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>9.303248987731954E-5</v>
+        <v>1.0105243046999008E-4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0853955549992703E-4</v>
+        <v>1.1823305798970086E-4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>1.263446405345847E-4</v>
+        <v>1.3800596765825123E-4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>1.4673746116624037E-4</v>
+        <v>1.6070285638348136E-4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>1.7003587804090715E-4</v>
+        <v>1.866878744247347E-4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>1.9658733134678944E-4</v>
+        <v>2.163592220299393E-4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2677014469946232E-4</v>
+        <v>2.5015056992689234E-4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.60994657963949E-4</v>
+        <v>2.8853225340609383E-4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.9970414579277567E-4</v>
+        <v>3.320121857398276E-4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.433754756229563E-4</v>
+        <v>3.8113643316395286E-4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>3.9251945627264816E-4</v>
+        <v>4.3648939076227885E-4</v>
       </c>
     </row>
     <row r="28">
@@ -1147,13 +1138,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>4.4768082623142637E-4</v>
+        <v>4.986934965001523E-4</v>
       </c>
     </row>
     <row r="29">
@@ -1161,27 +1152,27 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>5.094378293764245E-4</v>
+        <v>5.684084195248852E-4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>5.784013252972359E-4</v>
+        <v>6.463296588531007E-4</v>
       </c>
     </row>
     <row r="31">
@@ -1189,13 +1180,13 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>6.552133818083592E-4</v>
+        <v>7.331864898650307E-4</v>
       </c>
     </row>
     <row r="32">
@@ -1203,27 +1194,27 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>7.40545298689348E-4</v>
+        <v>8.297391987830399E-4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>8.350950143424813E-4</v>
+        <v>9.367755496607795E-4</v>
       </c>
     </row>
     <row r="34">
@@ -1231,13 +1222,13 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>9.395838509925402E-4</v>
+        <v>0.0010551064344828274</v>
       </c>
     </row>
     <row r="35">
@@ -1245,27 +1236,27 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0010547525593680987</v>
+        <v>0.0011855606648558704</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0011813566305575382</v>
+        <v>0.0013289788735309505</v>
       </c>
     </row>
     <row r="37">
@@ -1273,13 +1264,13 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0013201608509710548</v>
+        <v>0.001486206505652711</v>
       </c>
     </row>
     <row r="38">
@@ -1290,66 +1281,66 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0014719330860658124</v>
+        <v>0.0016580858931587329</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0016374372896856663</v>
+        <v>0.0018454474210878712</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001817425748460385</v>
+        <v>0.002049099811560033</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0020126305846011917</v>
+        <v>0.0022698195696937915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002223754555467767</v>
+        <v>0.0025083396554716926</v>
       </c>
     </row>
     <row r="43">
@@ -1357,13 +1348,13 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002451461204281951</v>
+        <v>0.0027653374662640097</v>
       </c>
     </row>
     <row r="44">
@@ -1371,27 +1362,27 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0026963644330746</v>
+        <v>0.0030414222359936814</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0029590175861099847</v>
+        <v>0.003337121978387196</v>
       </c>
     </row>
     <row r="46">
@@ -1399,13 +1390,13 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003239902149308818</v>
+        <v>0.003652870122909692</v>
       </c>
     </row>
     <row r="47">
@@ -1413,1049 +1404,1049 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003539416188222913</v>
+        <v>0.003988992012351214</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003857862663532177</v>
+        <v>0.004345691450061306</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.004195437778405142</v>
+        <v>0.0047230375019768345</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004552219525981893</v>
+        <v>0.0051209517732712095</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>0.004928156617247825</v>
+        <v>0.005539196391139922</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005323057979264967</v>
+        <v>0.005977362933377028</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005736583020676034</v>
+        <v>0.0064348625464994424</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006168232865249035</v>
+        <v>0.006910917496807889</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0066173427545822006</v>
+        <v>0.007404554392586693</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>0.007083075817749196</v>
+        <v>0.007914599305325398</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007564418398284034</v>
+        <v>0.008439675002287927</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D58" t="n">
-        <v>0.008060177117463041</v>
+        <v>0.008978200481834842</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>0.008568977837176361</v>
+        <v>0.009528392976774547</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00908926666586507</v>
+        <v>0.010088272559813094</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
-        <v>0.009619313127185225</v>
+        <v>0.010655669449299465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>0.010157215583416146</v>
+        <v>0.011228234073371701</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>0.010700908974553336</v>
+        <v>0.011803449906933328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0.011248174899929853</v>
+        <v>0.012378649049364365</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01179665403260799</v>
+        <v>0.01295103046236773</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>0.012343860818350927</v>
+        <v>0.013517680737810844</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>0.012887200371360041</v>
+        <v>0.014075597215874869</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
-        <v>0.013423987438968887</v>
+        <v>0.014621713225369093</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>0.013951467267896756</v>
+        <v>0.015152925171784237</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D70" t="n">
-        <v>0.014466838166334817</v>
+        <v>0.015666121155694268</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>0.014967275519946366</v>
+        <v>0.016158210765499642</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
-        <v>0.015449956986596292</v>
+        <v>0.016626155655300012</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>0.015912088565157134</v>
+        <v>0.01706700049177262</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01635093120877612</v>
+        <v>0.017477903834145964</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01676382763322043</v>
+        <v>0.01785616849934593</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
-        <v>0.017148228956951922</v>
+        <v>0.018199270960653158</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>0.017501720801841092</v>
+        <v>0.018504889333047253</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01782204848229782</v>
+        <v>0.018770929511951306</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>0.018107140916228656</v>
+        <v>0.018995549054222988</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01835513290372419</v>
+        <v>0.019177178420667775</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.018564385438557388</v>
+        <v>0.019314539237581814</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>0.018733503743257836</v>
+        <v>0.01940665928013764</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="n">
-        <v>0.018861352750214153</v>
+        <v>0.019452883931962903</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01894706978846155</v>
+        <v>0.019452883931962903</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>0.018990074277792646</v>
+        <v>0.01940665928013764</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D86" t="n">
-        <v>0.018990074277792465</v>
+        <v>0.019314539237581967</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D87" t="n">
-        <v>0.018947069788461564</v>
+        <v>0.019177178420667816</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>0.018861352750213972</v>
+        <v>0.01899554905422296</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.018733503743257822</v>
+        <v>0.018770929511951306</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01856438543855775</v>
+        <v>0.018504889333047253</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.018355132903724022</v>
+        <v>0.01819927096065313</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.018107140916228656</v>
+        <v>0.017856168499345876</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01782204848229768</v>
+        <v>0.017477903834146075</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.017501720801841064</v>
+        <v>0.01706700049177265</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.017148228956952255</v>
+        <v>0.01662615565529993</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.016763827633220346</v>
+        <v>0.016158210765499725</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.016350931208776093</v>
+        <v>0.015666121155694324</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.015912088565157106</v>
+        <v>0.01515292517178396</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.015449956986596125</v>
+        <v>0.014621713225369093</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.014967275519946643</v>
+        <v>0.014075597215874869</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>0.014466838166334817</v>
+        <v>0.013517680737810844</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.013951467267896644</v>
+        <v>0.01295103046236773</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>0.013423987438968887</v>
+        <v>0.012378649049364365</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>0.012887200371359875</v>
+        <v>0.011803449906933328</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.012343860818351204</v>
+        <v>0.011228234073371701</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01179665403260799</v>
+        <v>0.010655669449299465</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.011248174899929742</v>
+        <v>0.01008827255981326</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.010700908974553336</v>
+        <v>0.009528392976774491</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.010157215583416146</v>
+        <v>0.008978200481834786</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.00961931312718517</v>
+        <v>0.008439675002287816</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>0.009089266665865237</v>
+        <v>0.00791459930532562</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>0.008568977837176361</v>
+        <v>0.007404554392586582</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D113" t="n">
-        <v>0.008060177117463041</v>
+        <v>0.006910917496807889</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0075644183982837565</v>
+        <v>0.0064348625464994424</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D115" t="n">
-        <v>0.007083075817749307</v>
+        <v>0.005977362933377028</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D116" t="n">
-        <v>0.006617342754582367</v>
+        <v>0.005539196391139978</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D117" t="n">
-        <v>0.006168232865249035</v>
+        <v>0.0051209517732710985</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005736583020675756</v>
+        <v>0.0047230375019768345</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005323057979265022</v>
+        <v>0.004345691450061306</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004928156617248103</v>
+        <v>0.003988992012351214</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.004552219525981727</v>
+        <v>0.003652870122909692</v>
       </c>
     </row>
     <row r="122">
@@ -2463,13 +2454,13 @@
         <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.004195437778405253</v>
+        <v>0.003337121978387196</v>
       </c>
     </row>
     <row r="123">
@@ -2477,27 +2468,27 @@
         <v>168</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>0.003857862663532108</v>
+        <v>0.0030414222359936814</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D124" t="n">
-        <v>0.003539416188222941</v>
+        <v>0.0027653374662640097</v>
       </c>
     </row>
     <row r="125">
@@ -2505,83 +2496,83 @@
         <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D125" t="n">
-        <v>0.003239902149308787</v>
+        <v>0.0025083396554716926</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0029590175861099882</v>
+        <v>0.0022698195696937915</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0026963644330746696</v>
+        <v>0.002049099811560033</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D128" t="n">
-        <v>0.002451461204281951</v>
+        <v>0.0018454474210878712</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0022237545554677357</v>
+        <v>0.0016580858931587329</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D130" t="n">
-        <v>0.002012630584601164</v>
+        <v>0.001486206505652711</v>
       </c>
     </row>
     <row r="131">
@@ -2589,41 +2580,41 @@
         <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0018174257484604387</v>
+        <v>0.0013289788735309713</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0016374372896856716</v>
+        <v>0.001185560664855867</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0014719330860658124</v>
+        <v>0.00105510643448281</v>
       </c>
     </row>
     <row r="134">
@@ -2631,41 +2622,41 @@
         <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0013201608509710513</v>
+        <v>9.367755496607838E-4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0011813566305575226</v>
+        <v>8.297391987830373E-4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00105475255936809</v>
+        <v>7.331864898650455E-4</v>
       </c>
     </row>
     <row r="137">
@@ -2673,139 +2664,139 @@
         <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D137" t="n">
-        <v>9.39583850992568E-4</v>
+        <v>6.463296588530903E-4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D138" t="n">
-        <v>8.350950143424813E-4</v>
+        <v>5.684084195248865E-4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D139" t="n">
-        <v>7.405452986893385E-4</v>
+        <v>4.98693496500151E-4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>6.552133818083575E-4</v>
+        <v>4.364893907622728E-4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>5.784013252972415E-4</v>
+        <v>3.8113643316395286E-4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>5.094378293764197E-4</v>
+        <v>3.320121857398276E-4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D143" t="n">
-        <v>4.476808262314368E-4</v>
+        <v>2.8853225340609383E-4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" t="n">
-        <v>3.9251945627264816E-4</v>
+        <v>2.5015056992689234E-4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D145" t="n">
-        <v>3.433754756229563E-4</v>
+        <v>2.163592220299393E-4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D146" t="n">
-        <v>2.997041457927683E-4</v>
+        <v>1.866878744247347E-4</v>
       </c>
     </row>
     <row r="147">
@@ -2813,41 +2804,41 @@
         <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D147" t="n">
-        <v>2.6099465796395336E-4</v>
+        <v>1.6070285638348136E-4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C148" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D148" t="n">
-        <v>2.2677014469946535E-4</v>
+        <v>1.3800596765825123E-4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C149" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D149" t="n">
-        <v>1.9658733134678944E-4</v>
+        <v>1.1823305798970086E-4</v>
       </c>
     </row>
     <row r="150">
@@ -2855,279 +2846,223 @@
         <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D150" t="n">
-        <v>1.7003587804090455E-4</v>
+        <v>1.0105243046999008E-4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D151" t="n">
-        <v>1.467374611662407E-4</v>
+        <v>8.616311469854395E-5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D152" t="n">
-        <v>1.2634464053458568E-4</v>
+        <v>7.329305114747123E-5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153" t="n">
-        <v>1.0853955549992519E-4</v>
+        <v>6.21972235499065E-5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B154" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>9.303248987732268E-5</v>
+        <v>5.265577154313052E-5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>7.956034196748856E-5</v>
+        <v>4.4472111325473434E-5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>6.788503230894827E-5</v>
+        <v>3.747108779416608E-5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>5.779187806985691E-5</v>
+        <v>3.1497177577660516E-5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>4.9087959327219564E-5</v>
+        <v>2.641275860397005E-5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>4.160049892369135E-5</v>
+        <v>2.209645838699645E-5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D160" t="n">
-        <v>3.517527419365113E-5</v>
+        <v>1.8441590084631557E-5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D161" t="n">
-        <v>2.967507565058007E-5</v>
+        <v>1.535468259458291E-5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D162" t="n">
-        <v>2.497822475773867E-5</v>
+        <v>1.275410850639747E-5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>2.097716018439636E-5</v>
+        <v>1.056881161373758E-5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1.757709949315377E-5</v>
+        <v>8.737133896178983E-6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1.469478101524425E-5</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>228</v>
-      </c>
-      <c r="B166" t="s">
-        <v>229</v>
-      </c>
-      <c r="C166" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.2257288749077526E-5</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>230</v>
-      </c>
-      <c r="B167" t="s">
-        <v>231</v>
-      </c>
-      <c r="C167" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.0200961455864424E-5</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>230</v>
-      </c>
-      <c r="B168" t="s">
-        <v>232</v>
-      </c>
-      <c r="C168" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" t="n">
-        <v>8.470385714357743E-6</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>230</v>
-      </c>
-      <c r="B169" t="s">
-        <v>233</v>
-      </c>
-      <c r="C169" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" t="n">
-        <v>7.017471519938204E-6</v>
+        <v>7.205740386587803E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="235">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,685 +26,697 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Julia Roberts</t>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>CIA and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding capture in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>practicing the Occult in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norma Desmond</t>
+  </si>
+  <si>
+    <t>Sunset Boulevard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>clinging to past dreams in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nick Fury</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting humanism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>convicting criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>Escape From New York and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going on commando missions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>the Mongols and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mongolia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry King</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for immortality in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding retirement in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sid Vicious</t>
+  </si>
+  <si>
+    <t>Punk rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing punk rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scandalizing polite society in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Martial Arts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kung Fu and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Randolph Hearst</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>Italian Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
   </si>
   <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Athletics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jason Voorhees</t>
+  </si>
+  <si>
+    <t>Friday the 13th and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>entertaining teenagers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing to teenagers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working for the forces of darkness in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norman Rockwell</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tracy Jordan</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in comedies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Antonio Salieri</t>
+  </si>
+  <si>
+    <t>18th-Century Vienna and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opera and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Richard III</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakespeare and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Armstrong Custer</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>running a new-age website in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raising new-age children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
     <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Count Dracula</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
+    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Von Clausewitz</t>
+  </si>
+  <si>
+    <t>Modern military history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mao Tse-tung</t>
+  </si>
+  <si>
+    <t>China and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>Spinal Tap and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>producing Hipbop records in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kurt Cobain</t>
+  </si>
+  <si>
+    <t>Grunge music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing grungy music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Juliet Capulet</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>watching the sun rise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Uriah Heap</t>
+  </si>
+  <si>
+    <t>David Copperfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>French history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-Revolutionary France and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lizzy Bennet</t>
+  </si>
+  <si>
+    <t>Regency England and the Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Literature and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Professor Charles Xavier</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching young mutants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Salvador Dali</t>
-  </si>
-  <si>
-    <t>Surrealism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting surreal pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>Printing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>collecting fossils in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>English poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Talk radio and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
-  </si>
-  <si>
-    <t>The Big Bang Theory and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert E. Lee</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning battles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making ice sculptures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff Sessions</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+    <t xml:space="preserve"> British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>Watergate and the Cthulu mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> American politics and the Cthulu mythos</t>
   </si>
   <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>Heavy Metal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>composing classical music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Larry David</t>
-  </si>
-  <si>
-    <t>Curb Your Enthusiasm and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing TV comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>the Beat generation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing beat fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Principal Seymour Skinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>disciplining students in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating carrots in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>Die Hard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>organizing armed robberies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making bad movie choices in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crypography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Novak Djokovic</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Lindbergh</t>
-  </si>
-  <si>
-    <t>Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying airplanes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about history in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Directing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suspense and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making suspense movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>Facebook and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Violet Baudelaire</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Weird Al Yankovic</t>
-  </si>
-  <si>
-    <t>Musical Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parody and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing parody songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a communist country in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Krabs</t>
-  </si>
-  <si>
-    <t>Nickelodeon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a fast-food business in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Becky Sharp</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>suppressing violent urges in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Patch Adams</t>
-  </si>
-  <si>
-    <t>Modern medicine and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making sick people laugh in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>The Art of War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
-  </si>
-  <si>
-    <t>smoking during recess in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> looking for love in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>General George Patton</t>
-  </si>
-  <si>
-    <t>War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>slapping soldiers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>selling cheap airline seats in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>talking in riddles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Bond and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>saving money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pinching pennies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lucifer</t>
+  </si>
+  <si>
+    <t>Christianity and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Satanism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>burning the wicked in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nazi Germany and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Socialism and the Cthulu mythos</t>
   </si>
 </sst>
 </file>
@@ -780,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7.205740386587803E-6</v>
+        <v>6.971926933723982E-6</v>
       </c>
     </row>
     <row r="3">
@@ -794,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.737133896178983E-6</v>
+        <v>8.406162144306703E-6</v>
       </c>
     </row>
     <row r="4">
@@ -808,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.056881161373758E-5</v>
+        <v>1.0112760104766632E-5</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.275410850639747E-5</v>
+        <v>1.2138601491805891E-5</v>
       </c>
     </row>
     <row r="6">
@@ -836,147 +848,147 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5354682594583195E-5</v>
+        <v>1.4537663403317957E-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.844159008463168E-5</v>
+        <v>1.7371910019377772E-5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2096458386996044E-5</v>
+        <v>2.0712262413304845E-5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>2.6412758603970376E-5</v>
+        <v>2.4639648886750476E-5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>3.149717757766019E-5</v>
+        <v>2.9246136092987165E-5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>3.7471087794166543E-5</v>
+        <v>3.46361398816994E-5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>4.447211132547297E-5</v>
+        <v>4.092771323297849E-5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>5.265577154313139E-5</v>
+        <v>4.825390683763851E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6.219722354990645E-5</v>
+        <v>5.676419581900294E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>7.329305114747226E-5</v>
+        <v>6.662596377654371E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>8.616311469854211E-5</v>
+        <v>7.802603276866422E-5</v>
       </c>
     </row>
     <row r="17">
@@ -984,27 +996,27 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0105243046999008E-4</v>
+        <v>9.117222505186369E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>1.1823305798970086E-4</v>
+        <v>1.0629493937539653E-4</v>
       </c>
     </row>
     <row r="19">
@@ -1012,13 +1024,13 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1.3800596765825123E-4</v>
+        <v>1.2364872142239108E-4</v>
       </c>
     </row>
     <row r="20">
@@ -1026,27 +1038,27 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6070285638348136E-4</v>
+        <v>1.4351380462694846E-4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.866878744247347E-4</v>
+        <v>1.6619759412949005E-4</v>
       </c>
     </row>
     <row r="22">
@@ -1054,13 +1066,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2.163592220299393E-4</v>
+        <v>1.9203606311700883E-4</v>
       </c>
     </row>
     <row r="23">
@@ -1068,27 +1080,27 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>2.5015056992689234E-4</v>
+        <v>2.2139502729944926E-4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.8853225340609383E-4</v>
+        <v>2.5467125987688275E-4</v>
       </c>
     </row>
     <row r="25">
@@ -1096,13 +1108,13 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>3.320121857398276E-4</v>
+        <v>2.92293406144298E-4</v>
       </c>
     </row>
     <row r="26">
@@ -1110,27 +1122,27 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>3.8113643316395286E-4</v>
+        <v>3.3472265395979904E-4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>4.3648939076227885E-4</v>
+        <v>3.824531137760286E-4</v>
       </c>
     </row>
     <row r="28">
@@ -1138,13 +1150,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>4.986934965001523E-4</v>
+        <v>4.360118599168101E-4</v>
       </c>
     </row>
     <row r="29">
@@ -1152,27 +1164,27 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>5.684084195248852E-4</v>
+        <v>4.959585833917476E-4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>6.463296588531007E-4</v>
+        <v>5.628848059011995E-4</v>
       </c>
     </row>
     <row r="31">
@@ -1180,13 +1192,13 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>7.331864898650307E-4</v>
+        <v>6.374126049153057E-4</v>
       </c>
     </row>
     <row r="32">
@@ -1194,27 +1206,27 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>8.297391987830399E-4</v>
+        <v>7.201928009306271E-4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>9.367755496607795E-4</v>
+        <v>8.11902560327927E-4</v>
       </c>
     </row>
     <row r="34">
@@ -1222,13 +1234,13 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0010551064344828274</v>
+        <v>9.132423707729868E-4</v>
       </c>
     </row>
     <row r="35">
@@ -1236,27 +1248,27 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0011855606648558704</v>
+        <v>0.0010249323509077934</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0013289788735309505</v>
+        <v>0.0011477078622304307</v>
       </c>
     </row>
     <row r="37">
@@ -1264,13 +1276,13 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001486206505652711</v>
+        <v>0.0012823143986089025</v>
       </c>
     </row>
     <row r="38">
@@ -1278,27 +1290,27 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0016580858931587329</v>
+        <v>0.0014295017378235797</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0018454474210878712</v>
+        <v>0.0015900173498727115</v>
       </c>
     </row>
     <row r="40">
@@ -1306,13 +1318,13 @@
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002049099811560033</v>
+        <v>0.00176459906844984</v>
       </c>
     </row>
     <row r="41">
@@ -1320,27 +1332,27 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0022698195696937915</v>
+        <v>0.0019539670449253144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0025083396554716926</v>
+        <v>0.0021588150181977087</v>
       </c>
     </row>
     <row r="43">
@@ -1348,13 +1360,13 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0027653374662640097</v>
+        <v>0.002379800948768492</v>
       </c>
     </row>
     <row r="44">
@@ -1362,27 +1374,27 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0030414222359936814</v>
+        <v>0.0026175370810999805</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003337121978387196</v>
+        <v>0.0028725795145188443</v>
       </c>
     </row>
     <row r="46">
@@ -1390,13 +1402,13 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003652870122909692</v>
+        <v>0.003145417379298042</v>
       </c>
     </row>
     <row r="47">
@@ -1407,192 +1419,192 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003988992012351214</v>
+        <v>0.0034364617307992493</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004345691450061306</v>
+        <v>0.0037460342902951305</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0047230375019768345</v>
+        <v>0.004074356175970038</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0051209517732712095</v>
+        <v>0.004421536781177238</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005539196391139922</v>
+        <v>0.004787562968970871</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005977362933377028</v>
+        <v>0.005172288761737642</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0064348625464994424</v>
+        <v>0.0055754257121434225</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006910917496807889</v>
+        <v>0.0059965341461159505</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007404554392586693</v>
+        <v>0.006435015469944294</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D56" t="n">
-        <v>0.007914599305325398</v>
+        <v>0.006890105731457097</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D57" t="n">
-        <v>0.008439675002287927</v>
+        <v>0.0073608706194592255</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0.008978200481834842</v>
+        <v>0.007846202075944275</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>0.009528392976774547</v>
+        <v>0.008344816682026523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>0.010088272559813094</v>
+        <v>0.008855255961014386</v>
       </c>
     </row>
     <row r="61">
@@ -1600,13 +1612,13 @@
         <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>0.010655669449299465</v>
+        <v>0.00937588872068884</v>
       </c>
     </row>
     <row r="62">
@@ -1614,27 +1626,27 @@
         <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>0.011228234073371701</v>
+        <v>0.009904915531830372</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>0.011803449906933328</v>
+        <v>0.010440375411636227</v>
       </c>
     </row>
     <row r="64">
@@ -1642,13 +1654,13 @@
         <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0.012378649049364365</v>
+        <v>0.010980154749292481</v>
       </c>
     </row>
     <row r="65">
@@ -1656,27 +1668,27 @@
         <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01295103046236773</v>
+        <v>0.011521998477022233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>0.013517680737810844</v>
+        <v>0.012063523454062086</v>
       </c>
     </row>
     <row r="67">
@@ -1684,13 +1696,13 @@
         <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>0.014075597215874869</v>
+        <v>0.012602233993762813</v>
       </c>
     </row>
     <row r="68">
@@ -1698,27 +1710,27 @@
         <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>0.014621713225369093</v>
+        <v>0.01313553942615353</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>0.015152925171784237</v>
+        <v>0.013660773550525751</v>
       </c>
     </row>
     <row r="70">
@@ -1726,13 +1738,13 @@
         <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D70" t="n">
-        <v>0.015666121155694268</v>
+        <v>0.014175215795704799</v>
       </c>
     </row>
     <row r="71">
@@ -1740,27 +1752,27 @@
         <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D71" t="n">
-        <v>0.016158210765499642</v>
+        <v>0.014676113870492169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D72" t="n">
-        <v>0.016626155655300012</v>
+        <v>0.015160707654016836</v>
       </c>
     </row>
     <row r="73">
@@ -1768,13 +1780,13 @@
         <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01706700049177262</v>
+        <v>0.01562625404630022</v>
       </c>
     </row>
     <row r="74">
@@ -1782,27 +1794,27 @@
         <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D74" t="n">
-        <v>0.017477903834145964</v>
+        <v>0.01607005247381435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01785616849934593</v>
+        <v>0.016489470724026956</v>
       </c>
     </row>
     <row r="76">
@@ -1810,13 +1822,13 @@
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D76" t="n">
-        <v>0.018199270960653158</v>
+        <v>0.01688197076727571</v>
       </c>
     </row>
     <row r="77">
@@ -1824,186 +1836,186 @@
         <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D77" t="n">
-        <v>0.018504889333047253</v>
+        <v>0.01724513421447693</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.018770929511951306</v>
+        <v>0.017576687055348733</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.018995549054222988</v>
+        <v>0.017874523324380942</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.019177178420667775</v>
+        <v>0.018136727350762924</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
         <v>114</v>
       </c>
-      <c r="B81" t="s">
-        <v>115</v>
-      </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0.019314539237581814</v>
+        <v>0.018361594263842027</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01940665928013764</v>
+        <v>0.01854764844730096</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>0.019452883931962903</v>
+        <v>0.018693659662711817</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
         <v>118</v>
       </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.019452883931962903</v>
+        <v>0.018798656596063387</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01940665928013764</v>
+        <v>0.018861937618593047</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
         <v>121</v>
       </c>
-      <c r="B86" t="s">
-        <v>122</v>
-      </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>0.019314539237581967</v>
+        <v>0.018883078595161397</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>0.019177178420667816</v>
+        <v>0.01886193761859287</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01899554905422296</v>
+        <v>0.018798656596063397</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
       </c>
-      <c r="B89" t="s">
-        <v>126</v>
-      </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.018770929511951306</v>
+        <v>0.018693659662711984</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
         <v>127</v>
@@ -2012,12 +2024,12 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.018504889333047253</v>
+        <v>0.01854764844730096</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
@@ -2026,105 +2038,105 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01819927096065313</v>
+        <v>0.018361594263841888</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" t="s">
-        <v>130</v>
-      </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.017856168499345876</v>
+        <v>0.018136727350762896</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
         <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D93" t="n">
-        <v>0.017477903834146075</v>
+        <v>0.01787452332438111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01706700049177265</v>
+        <v>0.017576687055348733</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" t="s">
         <v>133</v>
       </c>
-      <c r="B95" t="s">
-        <v>134</v>
-      </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01662615565529993</v>
+        <v>0.017245134214476876</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
-        <v>0.016158210765499725</v>
+        <v>0.016881970767275767</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>0.015666121155694324</v>
+        <v>0.016489470724026956</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01515292517178396</v>
+        <v>0.01607005247381435</v>
       </c>
     </row>
     <row r="99">
@@ -2132,13 +2144,13 @@
         <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D99" t="n">
-        <v>0.014621713225369093</v>
+        <v>0.015626254046300053</v>
       </c>
     </row>
     <row r="100">
@@ -2146,27 +2158,27 @@
         <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D100" t="n">
-        <v>0.014075597215874869</v>
+        <v>0.015160707654017058</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D101" t="n">
-        <v>0.013517680737810844</v>
+        <v>0.014676113870492169</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +2186,13 @@
         <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01295103046236773</v>
+        <v>0.014175215795704688</v>
       </c>
     </row>
     <row r="103">
@@ -2188,349 +2200,349 @@
         <v>141</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D103" t="n">
-        <v>0.012378649049364365</v>
+        <v>0.01366077355052564</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
         <v>145</v>
       </c>
-      <c r="B104" t="s">
-        <v>146</v>
-      </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D104" t="n">
-        <v>0.011803449906933328</v>
+        <v>0.013135539426153753</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D105" t="n">
-        <v>0.011228234073371701</v>
+        <v>0.012602233993762813</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D106" t="n">
-        <v>0.010655669449299465</v>
+        <v>0.01206352345406203</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" t="s">
         <v>149</v>
       </c>
-      <c r="B107" t="s">
-        <v>150</v>
-      </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01008827255981326</v>
+        <v>0.011521998477022288</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.009528392976774491</v>
+        <v>0.010980154749292481</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
         <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D109" t="n">
-        <v>0.008978200481834786</v>
+        <v>0.010440375411636171</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
         <v>153</v>
       </c>
-      <c r="B110" t="s">
-        <v>154</v>
-      </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D110" t="n">
-        <v>0.008439675002287816</v>
+        <v>0.009904915531830205</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00791459930532562</v>
+        <v>0.009375888720689063</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
         <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>0.007404554392586582</v>
+        <v>0.008855255961014386</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
         <v>157</v>
       </c>
-      <c r="B113" t="s">
-        <v>158</v>
-      </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>0.006910917496807889</v>
+        <v>0.008344816682026468</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0064348625464994424</v>
+        <v>0.007846202075944164</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D115" t="n">
-        <v>0.005977362933377028</v>
+        <v>0.007360870619459392</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
         <v>161</v>
       </c>
-      <c r="B116" t="s">
-        <v>162</v>
-      </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D116" t="n">
-        <v>0.005539196391139978</v>
+        <v>0.006890105731457097</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
         <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0051209517732710985</v>
+        <v>0.0064350154699442386</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
         <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0047230375019768345</v>
+        <v>0.005996534146116006</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
         <v>165</v>
       </c>
-      <c r="B119" t="s">
-        <v>166</v>
-      </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004345691450061306</v>
+        <v>0.0055754257121434225</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
         <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>0.003988992012351214</v>
+        <v>0.005172288761737587</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" t="s">
         <v>168</v>
       </c>
-      <c r="B121" t="s">
-        <v>169</v>
-      </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>0.003652870122909692</v>
+        <v>0.004787562968970982</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
         <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D122" t="n">
-        <v>0.003337121978387196</v>
+        <v>0.004421536781177182</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
         <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0030414222359936814</v>
+        <v>0.004074356175970038</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" t="s">
         <v>172</v>
       </c>
-      <c r="B124" t="s">
-        <v>173</v>
-      </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0027653374662640097</v>
+        <v>0.003746034290295089</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
         <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0025083396554716926</v>
+        <v>0.003436461730799263</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126" t="s">
         <v>175</v>
       </c>
-      <c r="B126" t="s">
-        <v>176</v>
-      </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0022698195696937915</v>
+        <v>0.0031454173792980697</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D127" t="n">
-        <v>0.002049099811560033</v>
+        <v>0.0028725795145188443</v>
       </c>
     </row>
     <row r="128">
@@ -2538,391 +2550,391 @@
         <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0018454474210878712</v>
+        <v>0.00261753708109997</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0016580858931587329</v>
+        <v>0.0023798009487685026</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" t="s">
         <v>180</v>
       </c>
-      <c r="B130" t="s">
-        <v>182</v>
-      </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0.001486206505652711</v>
+        <v>0.0021588150181977087</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0013289788735309713</v>
+        <v>0.0019539670449252797</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001185560664855867</v>
+        <v>0.0017645990684498746</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133" t="s">
         <v>184</v>
       </c>
-      <c r="B133" t="s">
-        <v>186</v>
-      </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00105510643448281</v>
+        <v>0.0015900173498727115</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D134" t="n">
-        <v>9.367755496607838E-4</v>
+        <v>0.0014295017378235797</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D135" t="n">
-        <v>8.297391987830373E-4</v>
+        <v>0.0012823143986088973</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>185</v>
+      </c>
+      <c r="B136" t="s">
         <v>188</v>
       </c>
-      <c r="B136" t="s">
-        <v>190</v>
-      </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D136" t="n">
-        <v>7.331864898650455E-4</v>
+        <v>0.001147707862230436</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>6.463296588530903E-4</v>
+        <v>0.0010249323509077934</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
-        <v>5.684084195248865E-4</v>
+        <v>9.132423707729868E-4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
         <v>192</v>
       </c>
-      <c r="B139" t="s">
-        <v>194</v>
-      </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>4.98693496500151E-4</v>
+        <v>8.119025603279106E-4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>4.364893907622728E-4</v>
+        <v>7.201928009306436E-4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>193</v>
+      </c>
+      <c r="B141" t="s">
         <v>195</v>
       </c>
-      <c r="B141" t="s">
-        <v>197</v>
-      </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>3.8113643316395286E-4</v>
+        <v>6.374126049153057E-4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>3.320121857398276E-4</v>
+        <v>5.628848059011935E-4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>2.8853225340609383E-4</v>
+        <v>4.959585833917532E-4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>196</v>
+      </c>
+      <c r="B144" t="s">
         <v>199</v>
       </c>
-      <c r="B144" t="s">
-        <v>201</v>
-      </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>2.5015056992689234E-4</v>
+        <v>4.3601185991681054E-4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
-        <v>2.163592220299393E-4</v>
+        <v>3.824531137760286E-4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
         <v>202</v>
       </c>
-      <c r="B146" t="s">
-        <v>204</v>
-      </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
-        <v>1.866878744247347E-4</v>
+        <v>3.3472265395979904E-4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>1.6070285638348136E-4</v>
+        <v>2.92293406144298E-4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D148" t="n">
-        <v>1.3800596765825123E-4</v>
+        <v>2.5467125987688275E-4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>204</v>
+      </c>
+      <c r="B149" t="s">
         <v>206</v>
       </c>
-      <c r="B149" t="s">
-        <v>208</v>
-      </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D149" t="n">
-        <v>1.1823305798970086E-4</v>
+        <v>2.2139502729944926E-4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1.0105243046999008E-4</v>
+        <v>1.9203606311700883E-4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B151" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>8.616311469854395E-5</v>
+        <v>1.6619759412949005E-4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>7.329305114747123E-5</v>
+        <v>1.4351380462694846E-4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153" t="s">
         <v>212</v>
       </c>
-      <c r="B153" t="s">
-        <v>214</v>
-      </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>6.21972235499065E-5</v>
+        <v>1.2364872142239065E-4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>5.265577154313052E-5</v>
+        <v>1.0629493937539696E-4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>4.4472111325473434E-5</v>
+        <v>9.117222505186369E-5</v>
       </c>
     </row>
     <row r="156">
@@ -2930,41 +2942,41 @@
         <v>215</v>
       </c>
       <c r="B156" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D156" t="n">
-        <v>3.747108779416608E-5</v>
+        <v>7.802603276866422E-5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B157" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D157" t="n">
-        <v>3.1497177577660516E-5</v>
+        <v>6.66259637765423E-5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B158" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D158" t="n">
-        <v>2.641275860397005E-5</v>
+        <v>5.676419581900435E-5</v>
       </c>
     </row>
     <row r="159">
@@ -2972,41 +2984,41 @@
         <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D159" t="n">
-        <v>2.209645838699645E-5</v>
+        <v>4.825390683763851E-5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D160" t="n">
-        <v>1.8441590084631557E-5</v>
+        <v>4.092771323297849E-5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D161" t="n">
-        <v>1.535468259458291E-5</v>
+        <v>3.463613988169908E-5</v>
       </c>
     </row>
     <row r="162">
@@ -3014,41 +3026,41 @@
         <v>223</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1.275410850639747E-5</v>
+        <v>2.924613609298749E-5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1.056881161373758E-5</v>
+        <v>2.4639648886750476E-5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B164" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>8.737133896178983E-6</v>
+        <v>2.0712262413304574E-5</v>
       </c>
     </row>
     <row r="165">
@@ -3056,13 +3068,83 @@
         <v>227</v>
       </c>
       <c r="B165" t="s">
+        <v>228</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.7371910019377786E-5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" t="s">
+        <v>229</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.4537663403318214E-5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>227</v>
+      </c>
+      <c r="B167" t="s">
         <v>230</v>
       </c>
-      <c r="C165" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" t="n">
-        <v>7.205740386587803E-6</v>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.2138601491805891E-5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>231</v>
+      </c>
+      <c r="B168" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.0112760104766496E-5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>231</v>
+      </c>
+      <c r="B169" t="s">
+        <v>233</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="n">
+        <v>8.40616214430677E-6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>231</v>
+      </c>
+      <c r="B170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.97192693372405E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="231">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,697 +26,685 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>CIA and the Dagon mythos</t>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding capture in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>practicing the Occult in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
+    <t>leading the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Judge Judy Sheindlin</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>judging legal cases in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
   </si>
   <si>
     <t>Acting and the Cthulu mythos</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
   </si>
   <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norma Desmond</t>
-  </si>
-  <si>
-    <t>Sunset Boulevard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>clinging to past dreams in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nick Fury</t>
-  </si>
-  <si>
-    <t>S.H.I.E.L.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a clandestine spy organization in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting humanism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
+    <t>adopting children in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>the Motor industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Car industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>mass-producing cars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>24 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing terrorists in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Batman</t>
   </si>
   <si>
     <t>DC Comics and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>convicting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Snake Plissken</t>
-  </si>
-  <si>
-    <t>Escape From New York and the Dagon mythos</t>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph McCarthy</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>disappointing the family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Von Clausewitz</t>
+  </si>
+  <si>
+    <t>Modern military history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kal El</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
   </si>
   <si>
-    <t>going on commando missions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>the Mongols and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mongolia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry King</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roy Batty</t>
-  </si>
-  <si>
-    <t>Blade Runner and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking for immortality in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding retirement in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sid Vicious</t>
-  </si>
-  <si>
-    <t>Punk rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing punk rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scandalizing polite society in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkein</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Modern military history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Grace Jones</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lindsay Lohan</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dating supermodels in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Salvador Dali</t>
+  </si>
+  <si>
+    <t>Surrealism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting surreal pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Doonesbury and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Political Cartoons and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>drawing political cartoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>playing pop music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing moon walks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>performing serious acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>insulting celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jon Stewart</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mr. Edward Hyde</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>expressing violent urges in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Miami-Dade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>testing scientific theories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rat Pack and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Maynard Keynes</t>
+  </si>
+  <si>
+    <t>Keynesian economics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monetarist economics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting monetarism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Bannon</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The Joker</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading fear in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> laughing maniacally in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>the Frasier household and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking British food in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Violet Baudelaire</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extracting confessions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Lucille Ball</t>
+  </si>
+  <si>
+    <t>starring in sit-coms in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>offering advice in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmeline Pankhurst </t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the New world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cinderella</t>
+  </si>
+  <si>
+    <t>Fairy Tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>Twilight and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>sucking blood in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teaching magic in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Raymond Chandler</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
   </si>
   <si>
     <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
   </si>
   <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry Flynt</t>
-  </si>
-  <si>
-    <t>Hustler Magazine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Martial Arts and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kung Fu and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doctor Stephen Strange</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Randolph Hearst</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>Italian Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hamlet</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mel Gibson</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Athletics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Olympics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Voorhees</t>
-  </si>
-  <si>
-    <t>Friday the 13th and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>entertaining teenagers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing to teenagers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> working for the forces of darkness in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norman Rockwell</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tracy Jordan</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in comedies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Antonio Salieri</t>
-  </si>
-  <si>
-    <t>18th-Century Vienna and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Opera and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hustler Magazine and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soft pornography and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>publishing soft pornography in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Richard III</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shakespeare and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Armstrong Custer</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>running a new-age website in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raising new-age children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Zac Efron</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Osama Bin Laden</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>plotting terrorist outrages in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
-  </si>
-  <si>
-    <t>Modern military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mao Tse-tung</t>
-  </si>
-  <si>
-    <t>China and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>Spinal Tap and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Z</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>producing Hipbop records in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimmy Carter</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kurt Cobain</t>
-  </si>
-  <si>
-    <t>Grunge music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing grungy music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Juliet Capulet</t>
-  </si>
-  <si>
-    <t>Romeo and Juliet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>watching the sun rise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>David Copperfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>French history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre-Revolutionary France and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>Regency England and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Deep Throat</t>
-  </si>
-  <si>
-    <t>Watergate and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>talking in riddles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> James Bond and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ebenezer Scrooge</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>saving money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pinching pennies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>Christianity and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Satanism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>burning the wicked in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adolf Eichmann</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nazi Germany and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Socialism and the Cthulu mythos</t>
+    <t>making movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making Superhero movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Grisham</t>
+  </si>
+  <si>
+    <t>Legal fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legal drama and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Courtroom dramas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing short stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Paris Hilton</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -792,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.971926933723982E-6</v>
+        <v>7.063613215277564E-6</v>
       </c>
     </row>
     <row r="3">
@@ -806,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.406162144306703E-6</v>
+        <v>8.535572936426375E-6</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0112760104766632E-5</v>
+        <v>1.029063113493154E-5</v>
       </c>
     </row>
     <row r="5">
@@ -831,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2138601491805891E-5</v>
+        <v>1.2378126340334403E-5</v>
       </c>
     </row>
     <row r="6">
@@ -842,13 +830,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4537663403317957E-5</v>
+        <v>1.485495625294356E-5</v>
       </c>
     </row>
     <row r="7">
@@ -856,55 +844,55 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7371910019377772E-5</v>
+        <v>1.778653738319927E-5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0712262413304845E-5</v>
+        <v>2.1247850796531352E-5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>2.4639648886750476E-5</v>
+        <v>2.5324575419935946E-5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>2.9246136092987165E-5</v>
+        <v>3.01143091182572E-5</v>
       </c>
     </row>
     <row r="11">
@@ -915,10 +903,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>3.46361398816994E-5</v>
+        <v>3.572787624979987E-5</v>
       </c>
     </row>
     <row r="12">
@@ -926,13 +914,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>4.092771323297849E-5</v>
+        <v>4.229071864732945E-5</v>
       </c>
     </row>
     <row r="13">
@@ -940,377 +928,377 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>4.825390683763851E-5</v>
+        <v>4.9944364930145735E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>5.676419581900294E-5</v>
+        <v>5.884797072907606E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>6.662596377654371E-5</v>
+        <v>6.917991979791448E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>7.802603276866422E-5</v>
+        <v>8.113947309794828E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>9.117222505186369E-5</v>
+        <v>9.494844979078077E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0629493937539653E-4</v>
+        <v>1.108529206816694E-4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>1.2364872142239108E-4</v>
+        <v>1.2912489105428103E-4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>1.4351380462694846E-4</v>
+        <v>1.5006394607214681E-4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>1.6619759412949005E-4</v>
+        <v>1.7399882804809154E-4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>1.9203606311700883E-4</v>
+        <v>2.0128891096852348E-4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2139502729944926E-4</v>
+        <v>2.3232553378479221E-4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2.5467125987688275E-4</v>
+        <v>2.6753315024172436E-4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>2.92293406144298E-4</v>
+        <v>3.07370249508248E-4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>3.3472265395979904E-4</v>
+        <v>3.523299987210119E-4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>3.824531137760286E-4</v>
+        <v>4.0294055587504875E-4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>4.360118599168101E-4</v>
+        <v>4.5976499942568033E-4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>4.959585833917476E-4</v>
+        <v>5.234008196416972E-4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>5.628848059011995E-4</v>
+        <v>5.944789163092887E-4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>6.374126049153057E-4</v>
+        <v>6.73662047966676E-4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>7.201928009306271E-4</v>
+        <v>7.616426795848405E-4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>8.11902560327927E-4</v>
+        <v>8.591401786198312E-4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>9.132423707729868E-4</v>
+        <v>9.668973137599525E-4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0010249323509077934</v>
+        <v>0.0010856760165609217</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0011477078622304307</v>
+        <v>0.0012162523735743114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0012823143986089025</v>
+        <v>0.001359410825563477</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0014295017378235797</v>
+        <v>0.001515937560967854</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0015900173498727115</v>
+        <v>0.0016866131028931766</v>
       </c>
     </row>
     <row r="40">
@@ -1318,13 +1306,13 @@
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00176459906844984</v>
+        <v>0.0018722041024844573</v>
       </c>
     </row>
     <row r="41">
@@ -1332,27 +1320,27 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0019539670449253144</v>
+        <v>0.0020734543664696174</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0021588150181977087</v>
+        <v>0.0022910751627720737</v>
       </c>
     </row>
     <row r="43">
@@ -1360,13 +1348,13 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002379800948768492</v>
+        <v>0.0025257348651580996</v>
       </c>
     </row>
     <row r="44">
@@ -1374,27 +1362,27 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0026175370810999805</v>
+        <v>0.0027780480156630004</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0028725795145188443</v>
+        <v>0.003048563901697162</v>
       </c>
     </row>
     <row r="46">
@@ -1402,13 +1390,13 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003145417379298042</v>
+        <v>0.003337754762937406</v>
       </c>
     </row>
     <row r="47">
@@ -1419,66 +1407,66 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0034364617307992493</v>
+        <v>0.0036460037609611917</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0037460342902951305</v>
+        <v>0.003973592861660068</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>0.004074356175970038</v>
+        <v>0.004320690796327527</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004421536781177238</v>
+        <v>0.004687341281516599</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>0.004787562968970871</v>
+        <v>0.005073451689809716</v>
       </c>
     </row>
     <row r="52">
@@ -1489,10 +1477,10 @@
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005172288761737642</v>
+        <v>0.005478782373097568</v>
       </c>
     </row>
     <row r="53">
@@ -1503,10 +1491,10 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0055754257121434225</v>
+        <v>0.00590293684643145</v>
       </c>
     </row>
     <row r="54">
@@ -1517,10 +1505,10 @@
         <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0059965341461159505</v>
+        <v>0.006345353043504365</v>
       </c>
     </row>
     <row r="55">
@@ -1531,10 +1519,10 @@
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>0.006435015469944294</v>
+        <v>0.006805295854098947</v>
       </c>
     </row>
     <row r="56">
@@ -1545,10 +1533,10 @@
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006890105731457097</v>
+        <v>0.0072818511490058135</v>
       </c>
     </row>
     <row r="57">
@@ -1559,10 +1547,10 @@
         <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0073608706194592255</v>
+        <v>0.007773921488864022</v>
       </c>
     </row>
     <row r="58">
@@ -1573,10 +1561,10 @@
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007846202075944275</v>
+        <v>0.008280223699854039</v>
       </c>
     </row>
     <row r="59">
@@ -1587,10 +1575,10 @@
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.008344816682026523</v>
+        <v>0.00879928848127981</v>
       </c>
     </row>
     <row r="60">
@@ -1601,10 +1589,10 @@
         <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008855255961014386</v>
+        <v>0.009329462187734838</v>
       </c>
     </row>
     <row r="61">
@@ -1615,10 +1603,10 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00937588872068884</v>
+        <v>0.009868910902061434</v>
       </c>
     </row>
     <row r="62">
@@ -1629,10 +1617,10 @@
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>0.009904915531830372</v>
+        <v>0.010415626884866303</v>
       </c>
     </row>
     <row r="63">
@@ -1643,10 +1631,10 @@
         <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>0.010440375411636227</v>
+        <v>0.010967437452416517</v>
       </c>
     </row>
     <row r="64">
@@ -1657,10 +1645,10 @@
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>0.010980154749292481</v>
+        <v>0.011522016297763726</v>
       </c>
     </row>
     <row r="65">
@@ -1671,276 +1659,276 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>0.011521998477022233</v>
+        <v>0.012076897230556993</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>0.012063523454062086</v>
+        <v>0.012629490269915777</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>0.012602233993762813</v>
+        <v>0.013177099982674578</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
         <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01313553942615353</v>
+        <v>0.013716945917186696</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>0.013660773550525751</v>
+        <v>0.014246184941483497</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>0.014175215795704799</v>
+        <v>0.014761935254928027</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>0.014676113870492169</v>
+        <v>0.015261301805410521</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>0.015160707654016836</v>
+        <v>0.015741402810534405</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01562625404630022</v>
+        <v>0.016199397051981673</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01607005247381435</v>
+        <v>0.016632511588073745</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>0.016489470724026956</v>
+        <v>0.017038069511169263</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01688197076727571</v>
+        <v>0.017413517364523567</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01724513421447693</v>
+        <v>0.017756451828020825</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>0.017576687055348733</v>
+        <v>0.018064645284073477</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
         <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>0.017874523324380942</v>
+        <v>0.01833606988412273</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.018136727350762924</v>
+        <v>0.01856891975251894</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>0.018361594263842027</v>
+        <v>0.0187616309879529</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01854764844730096</v>
+        <v>0.0189128991526627</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>0.018693659662711817</v>
+        <v>0.01902169397587059</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>0.018798656596063387</v>
+        <v>0.019087271039617913</v>
       </c>
     </row>
     <row r="85">
@@ -1951,10 +1939,10 @@
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.018861937618593047</v>
+        <v>0.01910918026157683</v>
       </c>
     </row>
     <row r="86">
@@ -1965,10 +1953,10 @@
         <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.018883078595161397</v>
+        <v>0.01908727103961772</v>
       </c>
     </row>
     <row r="87">
@@ -1979,10 +1967,10 @@
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01886193761859287</v>
+        <v>0.01902169397587077</v>
       </c>
     </row>
     <row r="88">
@@ -1993,10 +1981,10 @@
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>0.018798656596063397</v>
+        <v>0.018912899152662352</v>
       </c>
     </row>
     <row r="89">
@@ -2007,402 +1995,402 @@
         <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.018693659662711984</v>
+        <v>0.018761630987953054</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
         <v>126</v>
       </c>
-      <c r="B90" t="s">
-        <v>127</v>
-      </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01854764844730096</v>
+        <v>0.018568919752518787</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.018361594263841888</v>
+        <v>0.018336069884122883</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
-        <v>0.018136727350762896</v>
+        <v>0.018064645284073658</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
         <v>130</v>
       </c>
-      <c r="B93" t="s">
-        <v>131</v>
-      </c>
       <c r="C93" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01787452332438111</v>
+        <v>0.01775645182802066</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.017576687055348733</v>
+        <v>0.017413517364523734</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.017245134214476876</v>
+        <v>0.01703806951116893</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.016881970767275767</v>
+        <v>0.016632511588073884</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
         <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D97" t="n">
-        <v>0.016489470724026956</v>
+        <v>0.01619939705198184</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
         <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01607005247381435</v>
+        <v>0.01574140281053424</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
         <v>137</v>
       </c>
-      <c r="B99" t="s">
-        <v>138</v>
-      </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>0.015626254046300053</v>
+        <v>0.015261301805410632</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
         <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>0.015160707654017058</v>
+        <v>0.01476193525492786</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
         <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>0.014676113870492169</v>
+        <v>0.014246184941483553</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" t="s">
         <v>141</v>
       </c>
-      <c r="B102" t="s">
-        <v>142</v>
-      </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>0.014175215795704688</v>
+        <v>0.013716945917186585</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
         <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01366077355052564</v>
+        <v>0.01317709998267469</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
         <v>144</v>
       </c>
-      <c r="B104" t="s">
-        <v>145</v>
-      </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>0.013135539426153753</v>
+        <v>0.012629490269915833</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>0.012602233993762813</v>
+        <v>0.012076897230556993</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
         <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01206352345406203</v>
+        <v>0.011522016297763782</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" t="s">
         <v>148</v>
       </c>
-      <c r="B107" t="s">
-        <v>149</v>
-      </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.011521998477022288</v>
+        <v>0.010967437452416406</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.010980154749292481</v>
+        <v>0.010415626884866191</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" t="s">
         <v>151</v>
       </c>
-      <c r="B109" t="s">
-        <v>152</v>
-      </c>
       <c r="C109" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
-        <v>0.010440375411636171</v>
+        <v>0.009868910902061434</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>0.009904915531830205</v>
+        <v>0.009329462187735005</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.009375888720689063</v>
+        <v>0.00879928848127981</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
         <v>155</v>
       </c>
-      <c r="B112" t="s">
-        <v>156</v>
-      </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.008855255961014386</v>
+        <v>0.008280223699853984</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>0.008344816682026468</v>
+        <v>0.007773921488863966</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
-        <v>0.007846202075944164</v>
+        <v>0.007281851149005758</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
         <v>159</v>
       </c>
-      <c r="B115" t="s">
-        <v>160</v>
-      </c>
       <c r="C115" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
-        <v>0.007360870619459392</v>
+        <v>0.006805295854099058</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0.006890105731457097</v>
+        <v>0.006345353043504254</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0064350154699442386</v>
+        <v>0.00590293684643145</v>
       </c>
     </row>
     <row r="118">
@@ -2410,13 +2398,13 @@
         <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005996534146116006</v>
+        <v>0.005478782373097901</v>
       </c>
     </row>
     <row r="119">
@@ -2424,27 +2412,27 @@
         <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0055754257121434225</v>
+        <v>0.005073451689809383</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005172288761737587</v>
+        <v>0.004687341281516877</v>
       </c>
     </row>
     <row r="121">
@@ -2452,83 +2440,83 @@
         <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>0.004787562968970982</v>
+        <v>0.004320690796327249</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C122" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.004421536781177182</v>
+        <v>0.003973592861660005</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>166</v>
+      </c>
+      <c r="B123" t="s">
         <v>169</v>
       </c>
-      <c r="B123" t="s">
-        <v>171</v>
-      </c>
       <c r="C123" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.004074356175970038</v>
+        <v>0.0036460037609613305</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>0.003746034290295089</v>
+        <v>0.0033377547629373505</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>0.003436461730799263</v>
+        <v>0.00304856390169719</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0031454173792980697</v>
+        <v>0.0027780480156629726</v>
       </c>
     </row>
     <row r="127">
@@ -2536,41 +2524,41 @@
         <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0028725795145188443</v>
+        <v>0.0025257348651581274</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D128" t="n">
-        <v>0.00261753708109997</v>
+        <v>0.002291075162772025</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0023798009487685026</v>
+        <v>0.0020734543664696313</v>
       </c>
     </row>
     <row r="130">
@@ -2578,111 +2566,111 @@
         <v>177</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0021588150181977087</v>
+        <v>0.0018722041024844573</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0019539670449252797</v>
+        <v>0.0016866131028931853</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
         <v>181</v>
       </c>
-      <c r="B132" t="s">
-        <v>183</v>
-      </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0017645990684498746</v>
+        <v>0.001515937560967854</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0015900173498727115</v>
+        <v>0.0013594108255634545</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0014295017378235797</v>
+        <v>0.001216252373574334</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>182</v>
+      </c>
+      <c r="B135" t="s">
         <v>185</v>
       </c>
-      <c r="B135" t="s">
-        <v>187</v>
-      </c>
       <c r="C135" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0012823143986088973</v>
+        <v>0.0010856760165608992</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D136" t="n">
-        <v>0.001147707862230436</v>
+        <v>9.668973137599464E-4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0010249323509077934</v>
+        <v>8.591401786198546E-4</v>
       </c>
     </row>
     <row r="138">
@@ -2690,13 +2678,13 @@
         <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>9.132423707729868E-4</v>
+        <v>7.616426795848232E-4</v>
       </c>
     </row>
     <row r="139">
@@ -2704,55 +2692,55 @@
         <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D139" t="n">
-        <v>8.119025603279106E-4</v>
+        <v>6.736620479666873E-4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" t="s">
         <v>193</v>
       </c>
-      <c r="B140" t="s">
-        <v>194</v>
-      </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>7.201928009306436E-4</v>
+        <v>5.944789163092774E-4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
-        <v>6.374126049153057E-4</v>
+        <v>5.234008196417011E-4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>5.628848059011935E-4</v>
+        <v>4.5976499942568683E-4</v>
       </c>
     </row>
     <row r="143">
@@ -2760,13 +2748,13 @@
         <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>4.959585833917532E-4</v>
+        <v>4.0294055587504094E-4</v>
       </c>
     </row>
     <row r="144">
@@ -2774,27 +2762,27 @@
         <v>196</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>4.3601185991681054E-4</v>
+        <v>3.523299987210136E-4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>3.824531137760286E-4</v>
+        <v>3.0737024950824366E-4</v>
       </c>
     </row>
     <row r="146">
@@ -2802,13 +2790,13 @@
         <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>3.3472265395979904E-4</v>
+        <v>2.6753315024173325E-4</v>
       </c>
     </row>
     <row r="147">
@@ -2816,55 +2804,55 @@
         <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>2.92293406144298E-4</v>
+        <v>2.3232553378478332E-4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" t="s">
         <v>204</v>
       </c>
-      <c r="B148" t="s">
-        <v>205</v>
-      </c>
       <c r="C148" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D148" t="n">
-        <v>2.5467125987688275E-4</v>
+        <v>2.0128891096852543E-4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>2.2139502729944926E-4</v>
+        <v>1.7399882804809285E-4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>1.9203606311700883E-4</v>
+        <v>1.5006394607214465E-4</v>
       </c>
     </row>
     <row r="151">
@@ -2872,13 +2860,13 @@
         <v>207</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D151" t="n">
-        <v>1.6619759412949005E-4</v>
+        <v>1.2912489105428287E-4</v>
       </c>
     </row>
     <row r="152">
@@ -2886,27 +2874,27 @@
         <v>207</v>
       </c>
       <c r="B152" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>1.4351380462694846E-4</v>
+        <v>1.1085292068166647E-4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D153" t="n">
-        <v>1.2364872142239065E-4</v>
+        <v>9.494844979078077E-5</v>
       </c>
     </row>
     <row r="154">
@@ -2914,13 +2902,13 @@
         <v>211</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D154" t="n">
-        <v>1.0629493937539696E-4</v>
+        <v>8.113947309794828E-5</v>
       </c>
     </row>
     <row r="155">
@@ -2928,27 +2916,27 @@
         <v>211</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>9.117222505186369E-5</v>
+        <v>6.917991979791583E-5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D156" t="n">
-        <v>7.802603276866422E-5</v>
+        <v>5.88479707290759E-5</v>
       </c>
     </row>
     <row r="157">
@@ -2956,13 +2944,13 @@
         <v>215</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D157" t="n">
-        <v>6.66259637765423E-5</v>
+        <v>4.994436493014454E-5</v>
       </c>
     </row>
     <row r="158">
@@ -2970,27 +2958,27 @@
         <v>215</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>5.676419581900435E-5</v>
+        <v>4.229071864732969E-5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D159" t="n">
-        <v>4.825390683763851E-5</v>
+        <v>3.5727876249799627E-5</v>
       </c>
     </row>
     <row r="160">
@@ -2998,13 +2986,13 @@
         <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>4.092771323297849E-5</v>
+        <v>3.0114309118257497E-5</v>
       </c>
     </row>
     <row r="161">
@@ -3012,27 +3000,27 @@
         <v>219</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D161" t="n">
-        <v>3.463613988169908E-5</v>
+        <v>2.532457541993565E-5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D162" t="n">
-        <v>2.924613609298749E-5</v>
+        <v>2.1247850796531352E-5</v>
       </c>
     </row>
     <row r="163">
@@ -3040,13 +3028,13 @@
         <v>223</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>2.4639648886750476E-5</v>
+        <v>1.778653738319939E-5</v>
       </c>
     </row>
     <row r="164">
@@ -3054,27 +3042,27 @@
         <v>223</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>2.0712262413304574E-5</v>
+        <v>1.4854956252943654E-5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1.7371910019377786E-5</v>
+        <v>1.2378126340334342E-5</v>
       </c>
     </row>
     <row r="166">
@@ -3082,13 +3070,13 @@
         <v>227</v>
       </c>
       <c r="B166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D166" t="n">
-        <v>1.4537663403318214E-5</v>
+        <v>1.0290631134931384E-5</v>
       </c>
     </row>
     <row r="167">
@@ -3096,55 +3084,27 @@
         <v>227</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D167" t="n">
-        <v>1.2138601491805891E-5</v>
+        <v>8.535572936426511E-6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D168" t="n">
-        <v>1.0112760104766496E-5</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>231</v>
-      </c>
-      <c r="B169" t="s">
-        <v>233</v>
-      </c>
-      <c r="C169" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" t="n">
-        <v>8.40616214430677E-6</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>231</v>
-      </c>
-      <c r="B170" t="s">
-        <v>234</v>
-      </c>
-      <c r="C170" t="s">
-        <v>15</v>
-      </c>
-      <c r="D170" t="n">
-        <v>6.97192693372405E-6</v>
+        <v>7.0636132152774285E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="238">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,217 +26,580 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Serena Williams</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Judge Judy Sheindlin</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
+    <t>delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>judging legal cases in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jim Jones</t>
+  </si>
+  <si>
+    <t>Christian Fundamentalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a religious cult in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> organizing mass suicides  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Macbeth</t>
+  </si>
+  <si>
+    <t>British politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>Marvel Comics. Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rocky Balboa</t>
+  </si>
+  <si>
+    <t>Boxing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kal El</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Saul Goodman</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>protecting criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> representing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Percy Percy</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leo Tolstoy</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War And Peace and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing Russian novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sun Tzu</t>
+  </si>
+  <si>
+    <t>The Art of War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
   </si>
   <si>
     <t>Acting and the Cthulu mythos</t>
   </si>
   <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>directing action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove</t>
+  </si>
+  <si>
+    <t>the Cold War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pushing the hardline in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>Fairy Tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>waiting for a hero in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>the Americas and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Age of Discovery and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>searching for a new world in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>coasting on past glories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marcel Duchamp</t>
+  </si>
+  <si>
+    <t>Dadaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making subversive art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
   </si>
   <si>
-    <t>adopting children in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>the Motor industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>24 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing terrorists in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph McCarthy</t>
+    <t>singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eleanor Roosevelt</t>
   </si>
   <si>
     <t>American history and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>disappointing the family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
-  </si>
-  <si>
-    <t>Modern military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kal El</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>J.R.R. Tolkein</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Modern military history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Groening</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>the Mongols and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mongolia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Popeye</t>
+  </si>
+  <si>
+    <t>Thimble Theatre and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Astronomy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medieval science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jonathan Swift</t>
+  </si>
+  <si>
+    <t>Satire and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Irish Famine and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing political satires in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marco Pierre White</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Baron Munchausen</t>
+  </si>
+  <si>
+    <t>German literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>telling tall tales in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing lies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry King</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>complaining about life in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
   </si>
   <si>
     <t>Pop music and the Cthulu mythos</t>
@@ -248,463 +611,121 @@
     <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Sarah Silverman</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lindsay Lohan</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dating supermodels in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Salvador Dali</t>
-  </si>
-  <si>
-    <t>Surrealism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting surreal pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Doonesbury and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Political Cartoons and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>drawing political cartoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>playing pop music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing moon walks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>performing serious acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jon Stewart</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu-Dagon mythos</t>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>The Scarlet Pimpernel</t>
+  </si>
+  <si>
+    <t>the French Revolution and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding Republicans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>the Enlightenment and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas "Neo" Anderson</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Lee Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock piano in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> marrying underage girls in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann von Goethe</t>
+  </si>
+  <si>
+    <t>German literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>expressing violent urges in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Miami-Dade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>testing scientific theories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rat Pack and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Maynard Keynes</t>
-  </si>
-  <si>
-    <t>Keynesian economics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monetarist economics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting monetarism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Bannon</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Joker</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading fear in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> laughing maniacally in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>the Frasier household and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking British food in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Violet Baudelaire</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> extracting confessions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samson</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lucille Ball</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>offering advice in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeline Pankhurst </t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the New world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>Fairy Tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>Twilight and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>sucking blood in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teaching magic in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making Superhero movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>Legal fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Legal drama and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Courtroom dramas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing short stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
+    <t>Sarah Connor</t>
+  </si>
+  <si>
+    <t>The Terminator and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Post-Apocalypse and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>amassing weapons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
   </si>
   <si>
     <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jared Kushner</t>
+  </si>
+  <si>
+    <t>running a business empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Wolfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -780,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7.063613215277564E-6</v>
+        <v>6.882583441351512E-6</v>
       </c>
     </row>
     <row r="3">
@@ -794,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.535572936426375E-6</v>
+        <v>8.280523292102435E-6</v>
       </c>
     </row>
     <row r="4">
@@ -808,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.029063113493154E-5</v>
+        <v>9.940625448406597E-6</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2378126340334403E-5</v>
+        <v>1.1907463722492263E-5</v>
       </c>
     </row>
     <row r="6">
@@ -836,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.485495625294356E-5</v>
+        <v>1.4232279143848372E-5</v>
       </c>
     </row>
     <row r="7">
@@ -850,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.778653738319927E-5</v>
+        <v>1.6973807350650054E-5</v>
       </c>
     </row>
     <row r="8">
@@ -861,10 +882,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>2.1247850796531352E-5</v>
+        <v>2.0199178808944553E-5</v>
       </c>
     </row>
     <row r="9">
@@ -872,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5324575419935946E-5</v>
+        <v>2.3984893154120344E-5</v>
       </c>
     </row>
     <row r="10">
@@ -886,55 +907,55 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>3.01143091182572E-5</v>
+        <v>2.8417867961162588E-5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>3.572787624979987E-5</v>
+        <v>3.359656106628785E-5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>4.229071864732945E-5</v>
+        <v>3.963216417079114E-5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>4.9944364930145735E-5</v>
+        <v>4.6649863848904254E-5</v>
       </c>
     </row>
     <row r="14">
@@ -945,10 +966,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>5.884797072907606E-5</v>
+        <v>5.4790164249319856E-5</v>
       </c>
     </row>
     <row r="15">
@@ -959,10 +980,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>6.917991979791448E-5</v>
+        <v>6.421026372296007E-5</v>
       </c>
     </row>
     <row r="16">
@@ -973,10 +994,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>8.113947309794828E-5</v>
+        <v>7.508547533094416E-5</v>
       </c>
     </row>
     <row r="17">
@@ -987,10 +1008,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>9.494844979078077E-5</v>
+        <v>8.761067869565568E-5</v>
       </c>
     </row>
     <row r="18">
@@ -1001,10 +1022,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>1.108529206816694E-4</v>
+        <v>1.0200178797004772E-4</v>
       </c>
     </row>
     <row r="19">
@@ -1015,10 +1036,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.2912489105428103E-4</v>
+        <v>1.1849721783918903E-4</v>
       </c>
     </row>
     <row r="20">
@@ -1029,10 +1050,10 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>1.5006394607214681E-4</v>
+        <v>1.3735932646467472E-4</v>
       </c>
     </row>
     <row r="21">
@@ -1043,10 +1064,10 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>1.7399882804809154E-4</v>
+        <v>1.5887581117680926E-4</v>
       </c>
     </row>
     <row r="22">
@@ -1057,10 +1078,10 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0128891096852348E-4</v>
+        <v>1.8336102956055251E-4</v>
       </c>
     </row>
     <row r="23">
@@ -1071,10 +1092,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>2.3232553378479221E-4</v>
+        <v>2.1115721542710434E-4</v>
       </c>
     </row>
     <row r="24">
@@ -1085,10 +1106,10 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.6753315024172436E-4</v>
+        <v>2.4263555608127017E-4</v>
       </c>
     </row>
     <row r="25">
@@ -1099,10 +1120,10 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>3.07370249508248E-4</v>
+        <v>2.781970943623018E-4</v>
       </c>
     </row>
     <row r="26">
@@ -1113,10 +1134,10 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.523299987210119E-4</v>
+        <v>3.182734162369698E-4</v>
       </c>
     </row>
     <row r="27">
@@ -1127,10 +1148,10 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0294055587504875E-4</v>
+        <v>3.6332708235188886E-4</v>
       </c>
     </row>
     <row r="28">
@@ -1141,10 +1162,10 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>4.5976499942568033E-4</v>
+        <v>4.1385176000547676E-4</v>
       </c>
     </row>
     <row r="29">
@@ -1155,10 +1176,10 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>5.234008196416972E-4</v>
+        <v>4.703720105830177E-4</v>
       </c>
     </row>
     <row r="30">
@@ -1169,197 +1190,197 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>5.944789163092887E-4</v>
+        <v>5.334426867172363E-4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>6.73662047966676E-4</v>
+        <v>6.03647893398538E-4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>7.616426795848405E-4</v>
+        <v>6.815994680689323E-4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>8.591401786198312E-4</v>
+        <v>7.679349364911933E-4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>9.668973137599525E-4</v>
+        <v>8.63314903980175E-4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0010856760165609217</v>
+        <v>9.684198454986892E-4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0012162523735743114</v>
+        <v>0.0010839462632147856</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001359410825563477</v>
+        <v>0.0012106021864414732</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001515937560967854</v>
+        <v>0.0013491019964494456</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0016866131028931766</v>
+        <v>0.0015001605674602857</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0018722041024844573</v>
+        <v>0.0016644867251504967</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0020734543664696174</v>
+        <v>0.0018427760351710284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0022910751627720737</v>
+        <v>0.002035702946399383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0025257348651580996</v>
+        <v>0.0022439123267722107</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
@@ -1368,334 +1389,334 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0027780480156630004</v>
+        <v>0.002468010443408917</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003048563901697162</v>
+        <v>0.002708555453141418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003337754762937406</v>
+        <v>0.002966047484251076</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0036460037609611917</v>
+        <v>0.003240918404932125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003973592861660068</v>
+        <v>0.0035335213884222574</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.004320690796327527</v>
+        <v>0.0038441203985737846</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004687341281516599</v>
+        <v>0.004172879732499024</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005073451689809716</v>
+        <v>0.004519853768513604</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
         <v>74</v>
       </c>
-      <c r="B52" t="s">
-        <v>75</v>
-      </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005478782373097568</v>
+        <v>0.004884977077496133</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00590293684643145</v>
+        <v>0.005268055063698485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006345353043504365</v>
+        <v>0.00566875530660188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
         <v>78</v>
       </c>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
-        <v>0.006805295854098947</v>
+        <v>0.006086599778303892</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0072818511490058135</v>
+        <v>0.006520958110913078</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007773921488864022</v>
+        <v>0.006971042085219981</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="B58" t="s">
-        <v>83</v>
-      </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>0.008280223699854039</v>
+        <v>0.007435901505378095</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00879928848127981</v>
+        <v>0.007914421614337752</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>0.009329462187734838</v>
+        <v>0.008405322191266051</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
         <v>86</v>
       </c>
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
-        <v>0.009868910902061434</v>
+        <v>0.008907158455195852</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>0.010415626884866303</v>
+        <v>0.00941832387879904</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
         <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>0.010967437452416517</v>
+        <v>0.009937054992641414</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64" t="n">
-        <v>0.011522016297763726</v>
+        <v>0.010461438233834663</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
-        <v>0.012076897230556993</v>
+        <v>0.010989418864024603</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="B66" t="s">
-        <v>94</v>
-      </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>0.012629490269915777</v>
+        <v>0.011518811950557095</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>0.013177099982674578</v>
+        <v>0.01204731537198056</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>96</v>
@@ -1704,49 +1725,49 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0.013716945917186696</v>
+        <v>0.01257252477531956</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
         <v>97</v>
       </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.014246184941483497</v>
+        <v>0.013091950378435024</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>0.014761935254928027</v>
+        <v>0.013603035476944081</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>0.015261301805410521</v>
+        <v>0.014103176482259339</v>
       </c>
     </row>
     <row r="72">
@@ -1757,10 +1778,10 @@
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>0.015741402810534405</v>
+        <v>0.014589744286087614</v>
       </c>
     </row>
     <row r="73">
@@ -1771,197 +1792,197 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>0.016199397051981673</v>
+        <v>0.015060106717841248</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
         <v>104</v>
       </c>
-      <c r="B74" t="s">
-        <v>105</v>
-      </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>0.016632511588073745</v>
+        <v>0.015511651835562718</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>0.017038069511169263</v>
+        <v>0.015941811768782427</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>0.017413517364523567</v>
+        <v>0.01634808681376476</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
         <v>108</v>
       </c>
-      <c r="B77" t="s">
-        <v>109</v>
-      </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>0.017756451828020825</v>
+        <v>0.01672806946838326</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.018064645284073477</v>
+        <v>0.017079468085783756</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
         <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01833606988412273</v>
+        <v>0.017400129823365362</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
         <v>112</v>
       </c>
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01856891975251894</v>
+        <v>0.017688062566647733</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0187616309879529</v>
+        <v>0.017941455516325325</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
         <v>115</v>
       </c>
-      <c r="B82" t="s">
-        <v>116</v>
-      </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0189128991526627</v>
+        <v>0.01815869814126042</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01902169397587059</v>
+        <v>0.018338397220091424</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D84" t="n">
-        <v>0.019087271039617913</v>
+        <v>0.01847939171929148</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
         <v>119</v>
       </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01910918026157683</v>
+        <v>0.01858076528544577</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01908727103961772</v>
+        <v>0.018641856163723575</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
@@ -1970,26 +1991,26 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01902169397587077</v>
+        <v>0.018662264392359976</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
         <v>123</v>
       </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.018912899152662352</v>
+        <v>0.018641856163723755</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>125</v>
@@ -1998,12 +2019,12 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.018761630987953054</v>
+        <v>0.018580765285445597</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
         <v>126</v>
@@ -2012,1099 +2033,1155 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.018568919752518787</v>
+        <v>0.018479391719291305</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
         <v>127</v>
       </c>
-      <c r="B91" t="s">
-        <v>128</v>
-      </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.018336069884122883</v>
+        <v>0.018338397220091618</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>0.018064645284073658</v>
+        <v>0.018158698141260574</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01775645182802066</v>
+        <v>0.017941455516325172</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
         <v>131</v>
       </c>
-      <c r="B94" t="s">
-        <v>132</v>
-      </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
-        <v>0.017413517364523734</v>
+        <v>0.017688062566647525</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01703806951116893</v>
+        <v>0.0174001298233655</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>0.016632511588073884</v>
+        <v>0.017079468085783978</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
         <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01619939705198184</v>
+        <v>0.016728069468383205</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01574140281053424</v>
+        <v>0.016348086813764512</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D99" t="n">
-        <v>0.015261301805410632</v>
+        <v>0.015941811768782593</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
         <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01476193525492786</v>
+        <v>0.015511651835562856</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>0.014246184941483553</v>
+        <v>0.015060106717841082</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D102" t="n">
-        <v>0.013716945917186585</v>
+        <v>0.014589744286087392</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01317709998267469</v>
+        <v>0.01410317648225956</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>0.012629490269915833</v>
+        <v>0.013603035476944247</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D105" t="n">
-        <v>0.012076897230556993</v>
+        <v>0.013091950378434858</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
-        <v>0.011522016297763782</v>
+        <v>0.012572524775319338</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>0.010967437452416406</v>
+        <v>0.012047315371980838</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>0.010415626884866191</v>
+        <v>0.011518811950557206</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.009868910902061434</v>
+        <v>0.010989418864024547</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.009329462187735005</v>
+        <v>0.010461438233834608</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00879928848127981</v>
+        <v>0.009937054992641525</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
-        <v>0.008280223699853984</v>
+        <v>0.00941832387879904</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
-        <v>0.007773921488863966</v>
+        <v>0.008907158455195685</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>0.007281851149005758</v>
+        <v>0.008405322191266051</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>0.006805295854099058</v>
+        <v>0.007914421614337919</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>0.006345353043504254</v>
+        <v>0.007435901505378095</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00590293684643145</v>
+        <v>0.006971042085219925</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005478782373097901</v>
+        <v>0.006520958110912856</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005073451689809383</v>
+        <v>0.006086599778304225</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004687341281516877</v>
+        <v>0.005668755306601825</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>0.004320690796327249</v>
+        <v>0.005268055063698485</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.003973592861660005</v>
+        <v>0.004884977077496022</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0036460037609613305</v>
+        <v>0.004519853768513549</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0033377547629373505</v>
+        <v>0.004172879732499191</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00304856390169719</v>
+        <v>0.0038441203985737776</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0027780480156629726</v>
+        <v>0.003533521388422202</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0025257348651581274</v>
+        <v>0.0032409184049321527</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.002291075162772025</v>
+        <v>0.002966047484251111</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0020734543664696313</v>
+        <v>0.0027085554531414043</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0018722041024844573</v>
+        <v>0.0024680104434088995</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0016866131028931853</v>
+        <v>0.0022439123267722003</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001515937560967854</v>
+        <v>0.0020357029463994245</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0013594108255634545</v>
+        <v>0.0018427760351710093</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>0.001216252373574334</v>
+        <v>0.001664486725150488</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0010856760165608992</v>
+        <v>0.0015001605674602961</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>9.668973137599464E-4</v>
+        <v>0.001349101996449463</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>8.591401786198546E-4</v>
+        <v>0.0012106021864414507</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
         <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>7.616426795848232E-4</v>
+        <v>0.0010839462632147856</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>6.736620479666873E-4</v>
+        <v>9.684198454986996E-4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
         <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>5.944789163092774E-4</v>
+        <v>8.633149039801872E-4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s">
         <v>194</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>5.234008196417011E-4</v>
+        <v>7.679349364911802E-4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D142" t="n">
-        <v>4.5976499942568683E-4</v>
+        <v>6.815994680689419E-4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B143" t="s">
         <v>197</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D143" t="n">
-        <v>4.0294055587504094E-4</v>
+        <v>6.036478933985319E-4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B144" t="s">
         <v>198</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D144" t="n">
-        <v>3.523299987210136E-4</v>
+        <v>5.334426867172459E-4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D145" t="n">
-        <v>3.0737024950824366E-4</v>
+        <v>4.703720105830112E-4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
         <v>201</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D146" t="n">
-        <v>2.6753315024173325E-4</v>
+        <v>4.138517600054733E-4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>2.3232553378478332E-4</v>
+        <v>3.633270823518923E-4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B148" t="s">
         <v>204</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>2.0128891096852543E-4</v>
+        <v>3.182734162369763E-4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
         <v>205</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1.7399882804809285E-4</v>
+        <v>2.7819709436229466E-4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>1.5006394607214465E-4</v>
+        <v>2.4263555608127429E-4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
         <v>208</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
-        <v>1.2912489105428287E-4</v>
+        <v>2.111572154271039E-4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
         <v>209</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D152" t="n">
-        <v>1.1085292068166647E-4</v>
+        <v>1.8336102956055598E-4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>9.494844979078077E-5</v>
+        <v>1.5887581117680785E-4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B154" t="s">
         <v>212</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>8.113947309794828E-5</v>
+        <v>1.3735932646467418E-4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B155" t="s">
         <v>213</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>6.917991979791583E-5</v>
+        <v>1.1849721783918946E-4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D156" t="n">
-        <v>5.88479707290759E-5</v>
+        <v>1.0200178797004924E-4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
         <v>216</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D157" t="n">
-        <v>4.994436493014454E-5</v>
+        <v>8.761067869565416E-5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D158" t="n">
-        <v>4.229071864732969E-5</v>
+        <v>7.508547533094476E-5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>3.5727876249799627E-5</v>
+        <v>6.421026372296028E-5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B160" t="s">
         <v>220</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
-        <v>3.0114309118257497E-5</v>
+        <v>5.479016424932056E-5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>2.532457541993565E-5</v>
+        <v>4.6649863848903766E-5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
-        <v>2.1247850796531352E-5</v>
+        <v>3.963216417079103E-5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B163" t="s">
         <v>224</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D163" t="n">
-        <v>1.778653738319939E-5</v>
+        <v>3.359656106628815E-5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1.4854956252943654E-5</v>
+        <v>2.8417867961162886E-5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1.2378126340334342E-5</v>
+        <v>2.3984893154120086E-5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B166" t="s">
         <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1.0290631134931384E-5</v>
+        <v>2.0199178808944553E-5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D167" t="n">
-        <v>8.535572936426511E-6</v>
+        <v>1.697380735065015E-5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B168" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D168" t="n">
-        <v>7.0636132152774285E-6</v>
+        <v>1.4232279143848534E-5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>232</v>
+      </c>
+      <c r="B169" t="s">
+        <v>233</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.190746372249214E-5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9.940625448406556E-6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>234</v>
+      </c>
+      <c r="B171" t="s">
+        <v>236</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="n">
+        <v>8.280523292102449E-6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" t="s">
+        <v>237</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.882583441351661E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="234">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,148 +26,559 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Serena Williams</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu-Dagon mythos</t>
+    <t>looking after children in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Cook</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
+    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying paleontology in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying into a rage in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmeline Pankhurst </t>
+  </si>
+  <si>
+    <t>British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael O'Leary</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>posing for photographs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Maguire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American football and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting greed in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>adopting children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Ancient Egypt and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>seducing emperors in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Rwanda and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a kingdom in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesse Jackson</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making home-made clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mae West</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Acting and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jim Jones</t>
-  </si>
-  <si>
-    <t>Christian Fundamentalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a religious cult in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> organizing mass suicides  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald Reagan</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Macbeth</t>
-  </si>
-  <si>
-    <t>British politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>Marvel Comics. Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rocky Balboa</t>
-  </si>
-  <si>
-    <t>Boxing and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kal El</t>
+    <t xml:space="preserve"> making lewd remarks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>dining with playboy princes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Madame Bovary and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Middle Class and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>planning adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harry S. Truman</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving riddles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>Spanish literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tilting at windmills in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>Regional Radio and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting radio shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>Nuclear Power and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>entertaining teenagers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing to teenagers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Capitalism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kurt Cobain</t>
+  </si>
+  <si>
+    <t>Grunge music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing grungy music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>Spinal Tap and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>Painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> painting self-portraits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>ranting about liberals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luciano Pavarotti</t>
+  </si>
+  <si>
+    <t>Opera and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing opera arias in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>insulting celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Adam West</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>wearing tights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting boxing fights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>squabbling on television in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Superman</t>
   </si>
   <si>
     <t>DC Comics and the Dagon mythos</t>
@@ -179,391 +590,121 @@
     <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
   </si>
   <si>
-    <t>Saul Goodman</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>protecting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> representing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Percy Percy</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leo Tolstoy</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War And Peace and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing Russian novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical movies and the Cthulu mythos</t>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>disappointing the family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Dystopian fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning about totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Janis Joplin</t>
+  </si>
+  <si>
+    <t>Psychadelic music and the Cthulu mythos</t>
   </si>
   <si>
     <t>singing rock songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>The Art of War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>directing action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Strangelove</t>
-  </si>
-  <si>
-    <t>the Cold War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pushing the hardline in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Fiona</t>
-  </si>
-  <si>
-    <t>Fairy Tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>waiting for a hero in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>the Americas and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Age of Discovery and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>searching for a new world in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Drudge</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tending the garden in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>coasting on past glories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marcel Duchamp</t>
-  </si>
-  <si>
-    <t>Dadaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making subversive art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Groening</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing comedy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>the Mongols and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mongolia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Popeye</t>
-  </si>
-  <si>
-    <t>Thimble Theatre and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samson</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Astronomy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medieval science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jonathan Swift</t>
-  </si>
-  <si>
-    <t>Satire and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Irish Famine and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing political satires in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Baron Munchausen</t>
-  </si>
-  <si>
-    <t>German literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>telling tall tales in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing lies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry King</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julia Roberts</t>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning boxing matches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>Mad Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protest songs and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing protest songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>throwing sex parties in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oprah Winfrey</t>
+  </si>
+  <si>
+    <t>Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu-Dagon mythos</t>
@@ -573,159 +714,6 @@
   </si>
   <si>
     <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about life in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Scarlet Pimpernel</t>
-  </si>
-  <si>
-    <t>the French Revolution and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding Republicans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>the Enlightenment and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Lee Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock piano in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> marrying underage girls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann von Goethe</t>
-  </si>
-  <si>
-    <t>German literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sarah Connor</t>
-  </si>
-  <si>
-    <t>The Terminator and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Post-Apocalypse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>amassing weapons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jared Kushner</t>
-  </si>
-  <si>
-    <t>running a business empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -801,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.882583441351512E-6</v>
+        <v>7.063613215277564E-6</v>
       </c>
     </row>
     <row r="3">
@@ -815,399 +803,399 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.280523292102435E-6</v>
+        <v>8.535572936426375E-6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>9.940625448406597E-6</v>
+        <v>1.029063113493154E-5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1907463722492263E-5</v>
+        <v>1.2378126340334403E-5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4232279143848372E-5</v>
+        <v>1.485495625294356E-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6973807350650054E-5</v>
+        <v>1.778653738319927E-5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0199178808944553E-5</v>
+        <v>2.1247850796531352E-5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>2.3984893154120344E-5</v>
+        <v>2.5324575419935946E-5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>2.8417867961162588E-5</v>
+        <v>3.01143091182572E-5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>3.359656106628785E-5</v>
+        <v>3.572787624979987E-5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>3.963216417079114E-5</v>
+        <v>4.229071864732945E-5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>4.6649863848904254E-5</v>
+        <v>4.9944364930145735E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5.4790164249319856E-5</v>
+        <v>5.884797072907606E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>6.421026372296007E-5</v>
+        <v>6.917991979791448E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>7.508547533094416E-5</v>
+        <v>8.113947309794828E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>8.761067869565568E-5</v>
+        <v>9.494844979078077E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0200178797004772E-4</v>
+        <v>1.108529206816694E-4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1.1849721783918903E-4</v>
+        <v>1.2912489105428103E-4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.3735932646467472E-4</v>
+        <v>1.5006394607214681E-4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.5887581117680926E-4</v>
+        <v>1.7399882804809154E-4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1.8336102956055251E-4</v>
+        <v>2.0128891096852348E-4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>2.1115721542710434E-4</v>
+        <v>2.3232553378479221E-4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>2.4263555608127017E-4</v>
+        <v>2.6753315024172436E-4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>2.781970943623018E-4</v>
+        <v>3.07370249508248E-4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>3.182734162369698E-4</v>
+        <v>3.523299987210119E-4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>3.6332708235188886E-4</v>
+        <v>4.0294055587504875E-4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>4.1385176000547676E-4</v>
+        <v>4.5976499942568033E-4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>4.703720105830177E-4</v>
+        <v>5.234008196416972E-4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>5.334426867172363E-4</v>
+        <v>5.944789163092887E-4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>6.03647893398538E-4</v>
+        <v>6.73662047966676E-4</v>
       </c>
     </row>
     <row r="32">
@@ -1215,13 +1203,13 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>6.815994680689323E-4</v>
+        <v>7.616426795848405E-4</v>
       </c>
     </row>
     <row r="33">
@@ -1229,27 +1217,27 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>7.679349364911933E-4</v>
+        <v>8.591401786198312E-4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>8.63314903980175E-4</v>
+        <v>9.668973137599525E-4</v>
       </c>
     </row>
     <row r="35">
@@ -1257,13 +1245,13 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>9.684198454986892E-4</v>
+        <v>0.0010856760165609217</v>
       </c>
     </row>
     <row r="36">
@@ -1271,27 +1259,27 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0010839462632147856</v>
+        <v>0.0012162523735743114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0012106021864414732</v>
+        <v>0.001359410825563477</v>
       </c>
     </row>
     <row r="38">
@@ -1299,447 +1287,447 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0013491019964494456</v>
+        <v>0.001515937560967854</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0015001605674602857</v>
+        <v>0.0016866131028931766</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0016644867251504967</v>
+        <v>0.0018722041024844573</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0018427760351710284</v>
+        <v>0.0020734543664696174</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002035702946399383</v>
+        <v>0.0022910751627720737</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0022439123267722107</v>
+        <v>0.0025257348651580996</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002468010443408917</v>
+        <v>0.0027780480156630004</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002708555453141418</v>
+        <v>0.003048563901697162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002966047484251076</v>
+        <v>0.003337754762937406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003240918404932125</v>
+        <v>0.0036460037609611917</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0035335213884222574</v>
+        <v>0.003973592861660068</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0038441203985737846</v>
+        <v>0.004320690796327527</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004172879732499024</v>
+        <v>0.004687341281516599</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>0.004519853768513604</v>
+        <v>0.005073451689809716</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004884977077496133</v>
+        <v>0.005478782373097568</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005268055063698485</v>
+        <v>0.00590293684643145</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00566875530660188</v>
+        <v>0.006345353043504365</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>0.006086599778303892</v>
+        <v>0.006805295854098947</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006520958110913078</v>
+        <v>0.0072818511490058135</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006971042085219981</v>
+        <v>0.007773921488864022</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007435901505378095</v>
+        <v>0.008280223699854039</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>0.007914421614337752</v>
+        <v>0.00879928848127981</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008405322191266051</v>
+        <v>0.009329462187734838</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>0.008907158455195852</v>
+        <v>0.009868910902061434</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00941832387879904</v>
+        <v>0.010415626884866303</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009937054992641414</v>
+        <v>0.010967437452416517</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>0.010461438233834663</v>
+        <v>0.011522016297763726</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>0.010989418864024603</v>
+        <v>0.012076897230556993</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>0.011518811950557095</v>
+        <v>0.012629490269915777</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01204731537198056</v>
+        <v>0.013177099982674578</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01257252477531956</v>
+        <v>0.013716945917186696</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.013091950378435024</v>
+        <v>0.014246184941483497</v>
       </c>
     </row>
     <row r="70">
@@ -1747,13 +1735,13 @@
         <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>0.013603035476944081</v>
+        <v>0.014761935254928027</v>
       </c>
     </row>
     <row r="71">
@@ -1761,419 +1749,419 @@
         <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>0.014103176482259339</v>
+        <v>0.015261301805410521</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>0.014589744286087614</v>
+        <v>0.015741402810534405</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>0.015060106717841248</v>
+        <v>0.016199397051981673</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>0.015511651835562718</v>
+        <v>0.016632511588073745</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>0.015941811768782427</v>
+        <v>0.017038069511169263</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01634808681376476</v>
+        <v>0.017413517364523567</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01672806946838326</v>
+        <v>0.017756451828020825</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.017079468085783756</v>
+        <v>0.018064645284073477</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.017400129823365362</v>
+        <v>0.01833606988412273</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.017688062566647733</v>
+        <v>0.01856891975251894</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0.017941455516325325</v>
+        <v>0.0187616309879529</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01815869814126042</v>
+        <v>0.0189128991526627</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>0.018338397220091424</v>
+        <v>0.01902169397587059</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01847939171929148</v>
+        <v>0.019087271039617913</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01858076528544577</v>
+        <v>0.01910918026157683</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.018641856163723575</v>
+        <v>0.01908727103961772</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.018662264392359976</v>
+        <v>0.01902169397587077</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.018641856163723755</v>
+        <v>0.018912899152662352</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.018580765285445597</v>
+        <v>0.018761630987953054</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.018479391719291305</v>
+        <v>0.018568919752518787</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.018338397220091618</v>
+        <v>0.018336069884122883</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>0.018158698141260574</v>
+        <v>0.018064645284073658</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>0.017941455516325172</v>
+        <v>0.01775645182802066</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>0.017688062566647525</v>
+        <v>0.017413517364523734</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0174001298233655</v>
+        <v>0.01703806951116893</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D96" t="n">
-        <v>0.017079468085783978</v>
+        <v>0.016632511588073884</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>0.016728069468383205</v>
+        <v>0.01619939705198184</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D98" t="n">
-        <v>0.016348086813764512</v>
+        <v>0.01574140281053424</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>0.015941811768782593</v>
+        <v>0.015261301805410632</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>0.015511651835562856</v>
+        <v>0.01476193525492786</v>
       </c>
     </row>
     <row r="101">
@@ -2181,13 +2169,13 @@
         <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>0.015060106717841082</v>
+        <v>0.014246184941483553</v>
       </c>
     </row>
     <row r="102">
@@ -2195,223 +2183,223 @@
         <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>0.014589744286087392</v>
+        <v>0.013716945917186585</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01410317648225956</v>
+        <v>0.01317709998267469</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>0.013603035476944247</v>
+        <v>0.012629490269915833</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.013091950378434858</v>
+        <v>0.012076897230556993</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D106" t="n">
-        <v>0.012572524775319338</v>
+        <v>0.011522016297763782</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D107" t="n">
-        <v>0.012047315371980838</v>
+        <v>0.010967437452416406</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>0.011518811950557206</v>
+        <v>0.010415626884866191</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.010989418864024547</v>
+        <v>0.009868910902061434</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.010461438233834608</v>
+        <v>0.009329462187735005</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>0.009937054992641525</v>
+        <v>0.00879928848127981</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>0.00941832387879904</v>
+        <v>0.008280223699853984</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.008907158455195685</v>
+        <v>0.007773921488863966</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.008405322191266051</v>
+        <v>0.007281851149005758</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>0.007914421614337919</v>
+        <v>0.006805295854099058</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>0.007435901505378095</v>
+        <v>0.006345353043504254</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>0.006971042085219925</v>
+        <v>0.00590293684643145</v>
       </c>
     </row>
     <row r="118">
@@ -2419,447 +2407,447 @@
         <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>0.006520958110912856</v>
+        <v>0.005478782373097901</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>0.006086599778304225</v>
+        <v>0.005073451689809383</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005668755306601825</v>
+        <v>0.004687341281516877</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005268055063698485</v>
+        <v>0.004320690796327249</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>0.004884977077496022</v>
+        <v>0.003973592861660005</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>0.004519853768513549</v>
+        <v>0.0036460037609613305</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>0.004172879732499191</v>
+        <v>0.0033377547629373505</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0038441203985737776</v>
+        <v>0.00304856390169719</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>0.003533521388422202</v>
+        <v>0.0027780480156629726</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0032409184049321527</v>
+        <v>0.0025257348651581274</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D128" t="n">
-        <v>0.002966047484251111</v>
+        <v>0.002291075162772025</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0027085554531414043</v>
+        <v>0.0020734543664696313</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0024680104434088995</v>
+        <v>0.0018722041024844573</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0022439123267722003</v>
+        <v>0.0016866131028931853</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0020357029463994245</v>
+        <v>0.001515937560967854</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0018427760351710093</v>
+        <v>0.0013594108255634545</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.001664486725150488</v>
+        <v>0.001216252373574334</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0015001605674602961</v>
+        <v>0.0010856760165608992</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.001349101996449463</v>
+        <v>9.668973137599464E-4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0012106021864414507</v>
+        <v>8.591401786198546E-4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0010839462632147856</v>
+        <v>7.616426795848232E-4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>9.684198454986996E-4</v>
+        <v>6.736620479666873E-4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>8.633149039801872E-4</v>
+        <v>5.944789163092774E-4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D141" t="n">
-        <v>7.679349364911802E-4</v>
+        <v>5.234008196417011E-4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="n">
-        <v>6.815994680689419E-4</v>
+        <v>4.5976499942568683E-4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>6.036478933985319E-4</v>
+        <v>4.0294055587504094E-4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>5.334426867172459E-4</v>
+        <v>3.523299987210136E-4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D145" t="n">
-        <v>4.703720105830112E-4</v>
+        <v>3.0737024950824366E-4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>4.138517600054733E-4</v>
+        <v>2.6753315024173325E-4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>3.633270823518923E-4</v>
+        <v>2.3232553378478332E-4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D148" t="n">
-        <v>3.182734162369763E-4</v>
+        <v>2.0128891096852543E-4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>2.7819709436229466E-4</v>
+        <v>1.7399882804809285E-4</v>
       </c>
     </row>
     <row r="150">
@@ -2867,41 +2855,41 @@
         <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
-        <v>2.4263555608127429E-4</v>
+        <v>1.5006394607214465E-4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D151" t="n">
-        <v>2.111572154271039E-4</v>
+        <v>1.2912489105428287E-4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
-        <v>1.8336102956055598E-4</v>
+        <v>1.1085292068166647E-4</v>
       </c>
     </row>
     <row r="153">
@@ -2909,41 +2897,41 @@
         <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>1.5887581117680785E-4</v>
+        <v>9.494844979078077E-5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1.3735932646467418E-4</v>
+        <v>8.113947309794828E-5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1.1849721783918946E-4</v>
+        <v>6.917991979791583E-5</v>
       </c>
     </row>
     <row r="156">
@@ -2951,237 +2939,181 @@
         <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1.0200178797004924E-4</v>
+        <v>5.88479707290759E-5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D157" t="n">
-        <v>8.761067869565416E-5</v>
+        <v>4.994436493014454E-5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158" t="n">
-        <v>7.508547533094476E-5</v>
+        <v>4.229071864732969E-5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" t="n">
-        <v>6.421026372296028E-5</v>
+        <v>3.5727876249799627E-5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" t="n">
-        <v>5.479016424932056E-5</v>
+        <v>3.0114309118257497E-5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161" t="n">
-        <v>4.6649863848903766E-5</v>
+        <v>2.532457541993565E-5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B162" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" t="n">
-        <v>3.963216417079103E-5</v>
+        <v>2.1247850796531352E-5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D163" t="n">
-        <v>3.359656106628815E-5</v>
+        <v>1.778653738319939E-5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D164" t="n">
-        <v>2.8417867961162886E-5</v>
+        <v>1.4854956252943654E-5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D165" t="n">
-        <v>2.3984893154120086E-5</v>
+        <v>1.2378126340334342E-5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B166" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D166" t="n">
-        <v>2.0199178808944553E-5</v>
+        <v>1.0290631134931384E-5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D167" t="n">
-        <v>1.697380735065015E-5</v>
+        <v>8.535572936426511E-6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D168" t="n">
-        <v>1.4232279143848534E-5</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>232</v>
-      </c>
-      <c r="B169" t="s">
-        <v>233</v>
-      </c>
-      <c r="C169" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.190746372249214E-5</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>234</v>
-      </c>
-      <c r="B170" t="s">
-        <v>235</v>
-      </c>
-      <c r="C170" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9.940625448406556E-6</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>234</v>
-      </c>
-      <c r="B171" t="s">
-        <v>236</v>
-      </c>
-      <c r="C171" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" t="n">
-        <v>8.280523292102449E-6</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>234</v>
-      </c>
-      <c r="B172" t="s">
-        <v>237</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" t="n">
-        <v>6.882583441351661E-6</v>
+        <v>7.0636132152774285E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -26,694 +26,694 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>complaining about life in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Randolph Hearst</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Golf and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mother Teresa</t>
+  </si>
+  <si>
+    <t>Calcutta and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing jewels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Pynchon</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>House of Cards and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting election strategies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jane Eyre</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
     <t>looking after children in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Prohibition and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>squabbling on television in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>American football and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> signing sports memorabilia in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a bureaucracy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Jong-Il</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sterling Archer</t>
+  </si>
+  <si>
+    <t>Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Adam Sandler</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making dumb comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for civil rights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going senile in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
   </si>
   <si>
     <t>Pop music and the Cthulu mythos</t>
   </si>
   <si>
+    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
+  </si>
+  <si>
     <t>singing pop songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
+    <t>Nick Fury</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Russell Brand</t>
+  </si>
+  <si>
+    <t>British comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Johnny Carson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late-night TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Huckleberry Finn</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American South and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>growing up poor in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting greed in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jackson Pollock</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Willie Nelson</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Italian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lucifer</t>
+  </si>
+  <si>
+    <t>Christianity and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Satanism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>burning the wicked in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>testing scientific theories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>flirting with rednecks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having meltdowns in public in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ernst Stavro Blofeld</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>chasing old women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hellboy</t>
+  </si>
+  <si>
+    <t>Dark Horse Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B.P.R.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hans Gruber</t>
+  </si>
+  <si>
+    <t>Die Hard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>organizing armed robberies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>attending cocktail parties in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a multinational corporation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Alfred Nobel</t>
+  </si>
+  <si>
+    <t>Chemistry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting pacifism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rocky Balboa</t>
+  </si>
+  <si>
+    <t>Boxing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack The Ripper</t>
+  </si>
+  <si>
+    <t>Victorian London and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian England and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing prostitutes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Cratchit</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>H.A.L. 9000</t>
+  </si>
+  <si>
+    <t>2001: A Space Odyssey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Homicidal computers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>murdering astronauts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>Silence of the Lambs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting serial killers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
   </si>
   <si>
     <t>Friends and the Dagon mythos</t>
   </si>
   <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying into a rage in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeline Pankhurst </t>
-  </si>
-  <si>
-    <t>British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>selling cheap airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>posing for photographs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American football and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting greed in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>adopting children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Ancient Egypt and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>seducing emperors in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Rwanda and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a kingdom in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesse Jackson</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making home-made clothes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making lewd remarks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>dining with playboy princes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Madame Bovary and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Middle Class and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>planning adultery in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Quixote</t>
-  </si>
-  <si>
-    <t>Spanish literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tilting at windmills in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>Regional Radio and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting radio shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Montgomery Burns</t>
-  </si>
-  <si>
-    <t>Nuclear Power and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>entertaining teenagers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing to teenagers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>Capitalism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kurt Cobain</t>
-  </si>
-  <si>
-    <t>Grunge music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing grungy music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>Spinal Tap and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rembrandt</t>
-  </si>
-  <si>
-    <t>Painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> painting self-portraits in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>ranting about liberals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luciano Pavarotti</t>
-  </si>
-  <si>
-    <t>Opera and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing opera arias in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Adam West</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wearing tights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting boxing fights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Coco Chanel</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hamlet</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Scott Evil</t>
-  </si>
-  <si>
-    <t>Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>squabbling on television in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>disappointing the family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Dystopian fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning about totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Janis Joplin</t>
-  </si>
-  <si>
-    <t>Psychadelic music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Xena</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning boxing matches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>Mad Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protest songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing protest songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>throwing sex parties in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oprah Winfrey</t>
-  </si>
-  <si>
-    <t>Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Groening</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Miami-Dade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -808,13 +808,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>1.029063113493154E-5</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>1.2378126340334403E-5</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>1.485495625294356E-5</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>1.778653738319927E-5</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>2.1247850796531352E-5</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>2.5324575419935946E-5</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>3.01143091182572E-5</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>3.572787624979987E-5</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>4.229071864732945E-5</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>4.9944364930145735E-5</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>5.884797072907606E-5</v>
@@ -962,13 +962,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>6.917991979791448E-5</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>8.113947309794828E-5</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>9.494844979078077E-5</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>1.108529206816694E-4</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>1.2912489105428103E-4</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
         <v>1.5006394607214681E-4</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
         <v>1.7399882804809154E-4</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
         <v>2.0128891096852348E-4</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>2.3232553378479221E-4</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>2.6753315024172436E-4</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>3.07370249508248E-4</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
         <v>3.523299987210119E-4</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>4.0294055587504875E-4</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>4.5976499942568033E-4</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
         <v>5.234008196416972E-4</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
         <v>5.944789163092887E-4</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
         <v>6.73662047966676E-4</v>
@@ -1200,13 +1200,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
         <v>7.616426795848405E-4</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
         <v>8.591401786198312E-4</v>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
         <v>9.668973137599525E-4</v>
@@ -1242,13 +1242,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
         <v>0.0010856760165609217</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
         <v>0.0012162523735743114</v>
@@ -1270,13 +1270,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
         <v>0.001359410825563477</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
         <v>0.001515937560967854</v>
@@ -1298,13 +1298,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
         <v>0.0016866131028931766</v>
@@ -1315,10 +1315,10 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
         <v>0.0018722041024844573</v>
@@ -1329,10 +1329,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
         <v>0.0020734543664696174</v>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
         <v>0.0022910751627720737</v>
@@ -1357,10 +1357,10 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
         <v>0.0025257348651580996</v>
@@ -1371,10 +1371,10 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
         <v>0.0027780480156630004</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
         <v>0.003048563901697162</v>
@@ -1399,10 +1399,10 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
         <v>0.003337754762937406</v>
@@ -1413,10 +1413,10 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>0.0036460037609611917</v>
@@ -1424,13 +1424,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>0.003973592861660068</v>
@@ -1441,10 +1441,10 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
         <v>0.004320690796327527</v>
@@ -1455,10 +1455,10 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
         <v>0.004687341281516599</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
         <v>0.005073451689809716</v>
@@ -1483,10 +1483,10 @@
         <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
         <v>0.005478782373097568</v>
@@ -1497,10 +1497,10 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
         <v>0.00590293684643145</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1525,10 +1525,10 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
         <v>0.006805295854098947</v>
@@ -1539,10 +1539,10 @@
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
         <v>0.0072818511490058135</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
         <v>0.007773921488864022</v>
@@ -1564,13 +1564,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
         <v>0.008280223699854039</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
         <v>0.00879928848127981</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
         <v>0.009329462187734838</v>
@@ -1606,13 +1606,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
         <v>0.009868910902061434</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>0.010415626884866303</v>
@@ -1634,13 +1634,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
         <v>0.010967437452416517</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
         <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
         <v>0.011522016297763726</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
         <v>0.012076897230556993</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
         <v>0.012629490269915777</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
         <v>0.013177099982674578</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
         <v>0.013716945917186696</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
         <v>0.014246184941483497</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
         <v>100</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
         <v>0.015741402810534405</v>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
         <v>0.016199397051981673</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
         <v>0.016632511588073745</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
         <v>106</v>
       </c>
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
         <v>0.017038069511169263</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
         <v>0.017413517364523567</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D77" t="n">
         <v>0.017756451828020825</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D78" t="n">
         <v>0.018064645284073477</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D79" t="n">
         <v>0.01833606988412273</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
         <v>0.01856891975251894</v>
@@ -1892,7 +1892,7 @@
         <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
         <v>0.0187616309879529</v>
@@ -1906,7 +1906,7 @@
         <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
         <v>0.0189128991526627</v>
@@ -1920,7 +1920,7 @@
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
         <v>0.01902169397587059</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
-      </c>
-      <c r="B89" t="s">
-        <v>126</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
         <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
         <v>0.018568919752518787</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
         <v>0.018336069884122883</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" t="s">
-        <v>130</v>
-      </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
         <v>0.018064645284073658</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
         <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
         <v>0.01775645182802066</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
         <v>0.017413517364523734</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" t="s">
         <v>133</v>
       </c>
-      <c r="B95" t="s">
-        <v>134</v>
-      </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
         <v>0.01703806951116893</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
         <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
         <v>0.016632511588073884</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
         <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D97" t="n">
         <v>0.01619939705198184</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" t="s">
         <v>137</v>
       </c>
-      <c r="B98" t="s">
-        <v>138</v>
-      </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
         <v>0.01574140281053424</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
         <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
         <v>0.015261301805410632</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" t="s">
         <v>140</v>
       </c>
-      <c r="B100" t="s">
-        <v>141</v>
-      </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
         <v>0.01476193525492786</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
         <v>0.014246184941483553</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
         <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
         <v>0.013716945917186585</v>
@@ -2194,13 +2194,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
         <v>144</v>
       </c>
-      <c r="B103" t="s">
-        <v>145</v>
-      </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
         <v>0.01317709998267469</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
         <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
         <v>0.012629490269915833</v>
@@ -2222,13 +2222,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
         <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
         <v>0.012076897230556993</v>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" t="s">
         <v>148</v>
       </c>
-      <c r="B106" t="s">
-        <v>149</v>
-      </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" t="n">
         <v>0.011522016297763782</v>
@@ -2250,13 +2250,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
         <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
         <v>0.010967437452416406</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
         <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
         <v>0.010415626884866191</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
         <v>152</v>
-      </c>
-      <c r="B109" t="s">
-        <v>153</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
         <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
         <v>0.009329462187735005</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
         <v>0.00879928848127981</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
         <v>0.008280223699853984</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
         <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
         <v>0.007773921488863966</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
         <v>0.007281851149005758</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
         <v>0.006805295854099058</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
         <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D116" t="n">
         <v>0.006345353043504254</v>
@@ -2396,7 +2396,7 @@
         <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
         <v>0.00590293684643145</v>
@@ -2410,7 +2410,7 @@
         <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
         <v>0.005478782373097901</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" t="s">
         <v>166</v>
       </c>
-      <c r="B119" t="s">
-        <v>167</v>
-      </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
         <v>0.005073451689809383</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s">
         <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" t="n">
         <v>0.004687341281516877</v>
@@ -2446,13 +2446,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
         <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
         <v>0.004320690796327249</v>
@@ -2460,13 +2460,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" t="s">
         <v>170</v>
       </c>
-      <c r="B122" t="s">
-        <v>171</v>
-      </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
         <v>0.003973592861660005</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
         <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123" t="n">
         <v>0.0036460037609613305</v>
@@ -2494,7 +2494,7 @@
         <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
         <v>0.0033377547629373505</v>
@@ -2508,7 +2508,7 @@
         <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
         <v>0.00304856390169719</v>
@@ -2516,13 +2516,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126" t="s">
         <v>176</v>
       </c>
-      <c r="B126" t="s">
-        <v>177</v>
-      </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
         <v>0.0027780480156629726</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B127" t="s">
         <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>0.0025257348651581274</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
         <v>0.002291075162772025</v>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" t="s">
         <v>180</v>
-      </c>
-      <c r="B129" t="s">
-        <v>181</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
         <v>182</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
         <v>183</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132" t="s">
         <v>184</v>
-      </c>
-      <c r="B132" t="s">
-        <v>185</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
         <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D133" t="n">
         <v>0.0013594108255634545</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
         <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
         <v>0.001216252373574334</v>
@@ -2642,13 +2642,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>185</v>
+      </c>
+      <c r="B135" t="s">
         <v>188</v>
       </c>
-      <c r="B135" t="s">
-        <v>189</v>
-      </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D135" t="n">
         <v>0.0010856760165608992</v>
@@ -2656,13 +2656,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
         <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
         <v>9.668973137599464E-4</v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
         <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D137" t="n">
         <v>8.591401786198546E-4</v>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" t="s">
         <v>192</v>
       </c>
-      <c r="B138" t="s">
-        <v>193</v>
-      </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D138" t="n">
         <v>7.616426795848232E-4</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
         <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D139" t="n">
         <v>6.736620479666873E-4</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
         <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D140" t="n">
         <v>5.944789163092774E-4</v>
@@ -2732,7 +2732,7 @@
         <v>197</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
         <v>5.234008196417011E-4</v>
@@ -2746,7 +2746,7 @@
         <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
         <v>4.5976499942568683E-4</v>
@@ -2760,7 +2760,7 @@
         <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
         <v>4.0294055587504094E-4</v>
@@ -2774,7 +2774,7 @@
         <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
         <v>3.523299987210136E-4</v>
@@ -2788,7 +2788,7 @@
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D145" t="n">
         <v>3.0737024950824366E-4</v>
@@ -2796,13 +2796,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
         <v>203</v>
       </c>
-      <c r="B146" t="s">
-        <v>204</v>
-      </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D146" t="n">
         <v>2.6753315024173325E-4</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
         <v>205</v>
@@ -2824,13 +2824,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>204</v>
+      </c>
+      <c r="B148" t="s">
         <v>206</v>
       </c>
-      <c r="B148" t="s">
-        <v>207</v>
-      </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
         <v>2.0128891096852543E-4</v>
@@ -2838,13 +2838,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
         <v>1.7399882804809285E-4</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
         <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
         <v>1.5006394607214465E-4</v>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>208</v>
+      </c>
+      <c r="B151" t="s">
         <v>210</v>
       </c>
-      <c r="B151" t="s">
-        <v>211</v>
-      </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
         <v>1.2912489105428287E-4</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
         <v>1.1085292068166647E-4</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
         <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
         <v>9.494844979078077E-5</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154" t="s">
         <v>214</v>
-      </c>
-      <c r="B154" t="s">
-        <v>215</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
         <v>217</v>
@@ -2950,13 +2950,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157" t="s">
         <v>218</v>
       </c>
-      <c r="B157" t="s">
-        <v>219</v>
-      </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
         <v>4.994436493014454E-5</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
         <v>220</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
         <v>4.229071864732969E-5</v>
@@ -2978,13 +2978,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
         <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
         <v>3.5727876249799627E-5</v>
@@ -2992,13 +2992,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" t="s">
         <v>222</v>
       </c>
-      <c r="B160" t="s">
-        <v>223</v>
-      </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D160" t="n">
         <v>3.0114309118257497E-5</v>
@@ -3006,13 +3006,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
         <v>224</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
         <v>2.532457541993565E-5</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
         <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
         <v>2.1247850796531352E-5</v>
@@ -3040,7 +3040,7 @@
         <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D163" t="n">
         <v>1.778653738319939E-5</v>
@@ -3054,7 +3054,7 @@
         <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D164" t="n">
         <v>1.4854956252943654E-5</v>
@@ -3068,7 +3068,7 @@
         <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D165" t="n">
         <v>1.2378126340334342E-5</v>
@@ -3082,7 +3082,7 @@
         <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
         <v>1.0290631134931384E-5</v>
@@ -3096,7 +3096,7 @@
         <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
         <v>8.535572936426511E-6</v>
@@ -3110,7 +3110,7 @@
         <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
         <v>7.0636132152774285E-6</v>

--- a/src/main/resources/projects120.xlsx
+++ b/src/main/resources/projects120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="220">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,484 +26,529 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about life in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Randolph Hearst</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
+    <t xml:space="preserve"> Manhattan and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about sex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Golf and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning golf tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mother Teresa</t>
-  </si>
-  <si>
-    <t>Calcutta and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> India and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
+    <t xml:space="preserve"> Protest songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing protest songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSI: Miami and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Police Procedurals and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dancing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>chasing criminals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Stewart</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mel Brooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>directing comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing funny movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Symbology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religious Iconology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying symbols in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mrs. Doubtfire</t>
+  </si>
+  <si>
+    <t>Housekeeping and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Child Minding and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family life and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
   </si>
   <si>
     <t>DC Comics and the Dagon mythos</t>
   </si>
   <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
   </si>
   <si>
-    <t>stealing jewels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Pynchon</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>House of Cards and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting election strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking after children in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Prohibition and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chicago and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scott Evil</t>
-  </si>
-  <si>
-    <t>Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>squabbling on television in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> signing sports memorabilia in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a bureaucracy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Jong-Il</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sterling Archer</t>
-  </si>
-  <si>
-    <t>Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Adam Sandler</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making dumb comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigella Lawson</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harriet Tubman</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for civil rights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going senile in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hamlet</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>Video games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating power pellets in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding electronic ghosts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
   </si>
   <si>
     <t>Pop music and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flaunting buttocks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Romeo Montague</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting in duels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>Spinal Tap and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Capitalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting capitalism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John McEnroe</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>whining at umpires in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivering forehand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rocky Balboa</t>
+  </si>
+  <si>
+    <t>Boxing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buffy Summers</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting demons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hunting monsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Janis Joplin</t>
+  </si>
+  <si>
+    <t>Psychadelic music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>biting opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morpheus</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>searching for the messiah in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recruiting dissidents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
   </si>
   <si>
     <t>singing pop songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Nick Fury</t>
-  </si>
-  <si>
-    <t>S.H.I.E.L.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a clandestine spy organization in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Russell Brand</t>
-  </si>
-  <si>
-    <t>British comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Johnny Carson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Late-night TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tina Turner</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American South and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>growing up poor in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting greed in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>McDonalds and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Talk radio and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Katharine Hepburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>hunting rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hunting wabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barney Rubble</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
   </si>
   <si>
     <t>Modern art and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Abstract art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abstract painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Willie Nelson</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Italian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>Christianity and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Satanism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>burning the wicked in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>testing scientific theories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>flirting with rednecks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> having meltdowns in public in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ernst Stavro Blofeld</t>
+    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>concocting magic potions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Svengali</t>
+  </si>
+  <si>
+    <t>the Music industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating ingenues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>The Velvet Revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting against family members in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sigmund Freud</t>
+  </si>
+  <si>
+    <t>Psychiatry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psychoanalysis and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>probing the mind in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
   </si>
   <si>
     <t>James Bond and the Dagon mythos</t>
@@ -515,205 +560,118 @@
     <t xml:space="preserve"> Finance and the Dagon mythos</t>
   </si>
   <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>chasing old women in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>Dark Horse Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B.P.R.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>Die Hard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>organizing armed robberies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>attending cocktail parties in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a multinational corporation in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Friedrich Nietzsche</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Alfred Nobel</t>
-  </si>
-  <si>
-    <t>Chemistry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting pacifism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rocky Balboa</t>
-  </si>
-  <si>
-    <t>Boxing and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>Victorian London and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian England and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing prostitutes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>H.A.L. 9000</t>
-  </si>
-  <si>
-    <t>2001: A Space Odyssey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Homicidal computers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>murdering astronauts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>Silence of the Lambs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting serial killers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Space Operas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Groening</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing comedy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Miami-Dade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dumb comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>Violin music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing the violin in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pontius Pilate</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>running a new-age website in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raising new-age children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>the Enlightenment and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>Documentaries and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making provocative documentaries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>practicing the Occult in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeffrey Lebowski</t>
+  </si>
+  <si>
+    <t>Bowling and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going bowling in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drinking White Russians in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bobby Kennedy</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -789,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7.063613215277564E-6</v>
+        <v>7.77950919656021E-6</v>
       </c>
     </row>
     <row r="3">
@@ -803,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.535572936426375E-6</v>
+        <v>9.562628106232635E-6</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.029063113493154E-5</v>
+        <v>1.1722365180395669E-5</v>
       </c>
     </row>
     <row r="5">
@@ -831,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2378126340334403E-5</v>
+        <v>1.433065825949868E-5</v>
       </c>
     </row>
     <row r="6">
@@ -845,110 +803,110 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.485495625294356E-5</v>
+        <v>1.747149005118966E-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.778653738319927E-5</v>
+        <v>2.12425507058673E-5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>2.1247850796531352E-5</v>
+        <v>2.5757060295111017E-5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5324575419935946E-5</v>
+        <v>3.114575323187127E-5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>3.01143091182572E-5</v>
+        <v>3.755902370177494E-5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>3.572787624979987E-5</v>
+        <v>4.516922758803044E-5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>4.229071864732945E-5</v>
+        <v>5.4173132133383036E-5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>4.9944364930145735E-5</v>
+        <v>6.479449966838042E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -957,12 +915,12 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>5.884797072907606E-5</v>
+        <v>7.728678613864521E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -971,26 +929,26 @@
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>6.917991979791448E-5</v>
+        <v>9.193592889634495E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>8.113947309794828E-5</v>
+        <v>1.0906319131661366E-4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -999,40 +957,40 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>9.494844979078077E-5</v>
+        <v>1.2902802431784299E-4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>1.108529206816694E-4</v>
+        <v>1.5223089689411112E-4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.2912489105428103E-4</v>
+        <v>1.791160394286858E-4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -1041,399 +999,399 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>1.5006394607214681E-4</v>
+        <v>2.1017403500304043E-4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>1.7399882804809154E-4</v>
+        <v>2.459441853351382E-4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0128891096852348E-4</v>
+        <v>2.8701656959742735E-4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.3232553378479221E-4</v>
+        <v>3.340337064376324E-4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2.6753315024172436E-4</v>
+        <v>3.876917223439888E-4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>3.07370249508248E-4</v>
+        <v>4.4874092337975416E-4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>3.523299987210119E-4</v>
+        <v>5.179856626004258E-4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0294055587504875E-4</v>
+        <v>5.962833925185684E-4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>4.5976499942568033E-4</v>
+        <v>6.845427911574345E-4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>5.234008196416972E-4</v>
+        <v>7.837208518964908E-4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>5.944789163092887E-4</v>
+        <v>8.948188317995298E-4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>6.73662047966676E-4</v>
+        <v>0.0010188769607461894</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>7.616426795848405E-4</v>
+        <v>0.0011569678247224944</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>8.591401786198312E-4</v>
+        <v>0.0013101883512823213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>9.668973137599525E-4</v>
+        <v>0.0014796503435914581</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0010856760165609217</v>
+        <v>0.001666469531665566</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0012162523735743114</v>
+        <v>0.0018717531353383068</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001359410825563477</v>
+        <v>0.0020965859629779038</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001515937560967854</v>
+        <v>0.002342015102702058</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0016866131028931766</v>
+        <v>0.002609033298382017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0018722041024844573</v>
+        <v>0.0028985611405101426</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0020734543664696174</v>
+        <v>0.0032114282413134992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0022910751627720737</v>
+        <v>0.0035483536035012184</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0025257348651580996</v>
+        <v>0.003909925431768775</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0027780480156630004</v>
+        <v>0.004296580674604554</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003048563901697162</v>
+        <v>0.004708584619900522</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003337754762937406</v>
+        <v>0.0051460109001938426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0036460037609611917</v>
+        <v>0.005608722290828316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003973592861660068</v>
+        <v>0.006096352705744934</v>
       </c>
     </row>
     <row r="49">
@@ -1441,13 +1399,13 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>0.004320690796327527</v>
+        <v>0.006608290809860196</v>
       </c>
     </row>
     <row r="50">
@@ -1455,69 +1413,69 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004687341281516599</v>
+        <v>0.007143665673009614</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005073451689809716</v>
+        <v>0.007701334887314559</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005478782373097568</v>
+        <v>0.00827987555689641</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00590293684643145</v>
+        <v>0.008877578545518905</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006345353043504365</v>
+        <v>0.009492446333812465</v>
       </c>
     </row>
     <row r="55">
@@ -1525,1595 +1483,1399 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>0.006805295854098947</v>
+        <v>0.010122194793195427</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0072818511490058135</v>
+        <v>0.010764259128781206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007773921488864022</v>
+        <v>0.011415804179123135</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>0.008280223699854039</v>
+        <v>0.012073739187476562</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00879928848127981</v>
+        <v>0.012734737078722136</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>0.009329462187734838</v>
+        <v>0.013395258189628945</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>0.009868910902061434</v>
+        <v>0.014051578309677182</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>0.010415626884866303</v>
+        <v>0.014699820797152263</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>0.010967437452416517</v>
+        <v>0.015335992442951807</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0.011522016297763726</v>
+        <v>0.015956022664803504</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>0.012076897230556993</v>
+        <v>0.01655580552977609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.012629490269915777</v>
+        <v>0.017131244025428316</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>0.013177099982674578</v>
+        <v>0.01767829593195347</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>0.013716945917186696</v>
+        <v>0.01819302059133246</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>0.014246184941483497</v>
+        <v>0.018671625826683386</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>0.014761935254928027</v>
+        <v>0.01911051423719956</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>0.015261301805410521</v>
+        <v>0.01950632808258365</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>0.015741402810534405</v>
+        <v>0.019855991976366977</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>0.016199397051981673</v>
+        <v>0.02015675263042356</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>0.016632511588073745</v>
+        <v>0.020406214933085434</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>0.017038069511169263</v>
+        <v>0.02060237370003086</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>0.017413517364523567</v>
+        <v>0.0207436405093884</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>0.017756451828020825</v>
+        <v>0.020828865118790667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.018064645284073477</v>
+        <v>0.020857351060491237</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01833606988412273</v>
+        <v>0.020828865118790667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01856891975251894</v>
+        <v>0.020743640509388588</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0187616309879529</v>
+        <v>0.020602373700030825</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0189128991526627</v>
+        <v>0.02040621493308528</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01902169397587059</v>
+        <v>0.02015675263042356</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.019087271039617913</v>
+        <v>0.019855991976367365</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01910918026157683</v>
+        <v>0.019506328082583402</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01908727103961772</v>
+        <v>0.019110514237199616</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01902169397587077</v>
+        <v>0.01867162582668319</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>0.018912899152662352</v>
+        <v>0.01819302059133246</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.018761630987953054</v>
+        <v>0.017678295931953608</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
-        <v>0.018568919752518787</v>
+        <v>0.01713124402542829</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>0.018336069884122883</v>
+        <v>0.016555805529776146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
-        <v>0.018064645284073658</v>
+        <v>0.015956022664803338</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01775645182802066</v>
+        <v>0.015335992442951807</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.017413517364523734</v>
+        <v>0.014699820797152319</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01703806951116893</v>
+        <v>0.014051578309677293</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.016632511588073884</v>
+        <v>0.013395258189628778</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01619939705198184</v>
+        <v>0.012734737078722136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01574140281053424</v>
+        <v>0.012073739187476562</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>0.015261301805410632</v>
+        <v>0.011415804179123246</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01476193525492786</v>
+        <v>0.010764259128781206</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>0.014246184941483553</v>
+        <v>0.010122194793195316</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>0.013716945917186585</v>
+        <v>0.009492446333812465</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01317709998267469</v>
+        <v>0.008877578545519071</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>0.012629490269915833</v>
+        <v>0.008279875556896299</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.012076897230556993</v>
+        <v>0.00770133488731467</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.011522016297763782</v>
+        <v>0.007143665673009447</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.010967437452416406</v>
+        <v>0.006608290809860196</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.010415626884866191</v>
+        <v>0.006096352705744823</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
-        <v>0.009868910902061434</v>
+        <v>0.005608722290828372</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>0.009329462187735005</v>
+        <v>0.005146010900193898</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00879928848127981</v>
+        <v>0.004708584619900522</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.008280223699853984</v>
+        <v>0.004296580674604554</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>0.007773921488863966</v>
+        <v>0.003909925431768796</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
-        <v>0.007281851149005758</v>
+        <v>0.003548353603501187</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.006805295854099058</v>
+        <v>0.0032114282413135097</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.006345353043504254</v>
+        <v>0.0028985611405101426</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00590293684643145</v>
+        <v>0.002609033298382017</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005478782373097901</v>
+        <v>0.0023420151027020927</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005073451689809383</v>
+        <v>0.0020965859629778795</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004687341281516877</v>
+        <v>0.0018717531353382964</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.004320690796327249</v>
+        <v>0.001666469531665566</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.003973592861660005</v>
+        <v>0.0014796503435914737</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0036460037609613305</v>
+        <v>0.001310188351282316</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0033377547629373505</v>
+        <v>0.001156967824722484</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00304856390169719</v>
+        <v>0.0010188769607461894</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0027780480156629726</v>
+        <v>8.948188317995298E-4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0025257348651581274</v>
+        <v>7.83720851896502E-4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.002291075162772025</v>
+        <v>6.845427911574276E-4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0020734543664696313</v>
+        <v>5.962833925185641E-4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0018722041024844573</v>
+        <v>5.179856626004258E-4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0016866131028931853</v>
+        <v>4.4874092337975416E-4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001515937560967854</v>
+        <v>3.876917223439953E-4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0013594108255634545</v>
+        <v>3.340337064376259E-4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
-        <v>0.001216252373574334</v>
+        <v>2.8701656959742735E-4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0010856760165608992</v>
+        <v>2.459441853351382E-4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
-        <v>9.668973137599464E-4</v>
+        <v>2.1017403500304043E-4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>8.591401786198546E-4</v>
+        <v>1.7911603942868796E-4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
-        <v>7.616426795848232E-4</v>
+        <v>1.5223089689411036E-4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>6.736620479666873E-4</v>
+        <v>1.2902802431784158E-4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D140" t="n">
-        <v>5.944789163092774E-4</v>
+        <v>1.0906319131661366E-4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D141" t="n">
-        <v>5.234008196417011E-4</v>
+        <v>9.193592889634593E-5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D142" t="n">
-        <v>4.5976499942568683E-4</v>
+        <v>7.728678613864423E-5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>4.0294055587504094E-4</v>
+        <v>6.479449966838161E-5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>3.523299987210136E-4</v>
+        <v>5.4173132133381843E-5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>3.0737024950824366E-4</v>
+        <v>4.516922758803044E-5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>2.6753315024173325E-4</v>
+        <v>3.755902370177543E-5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>2.3232553378478332E-4</v>
+        <v>3.1145753231871245E-5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>2.0128891096852543E-4</v>
+        <v>2.5757060295110556E-5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1.7399882804809285E-4</v>
+        <v>2.12425507058673E-5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
-        <v>1.5006394607214465E-4</v>
+        <v>1.747149005118966E-5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
-        <v>1.2912489105428287E-4</v>
+        <v>1.433065825949868E-5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B152" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
-        <v>1.1085292068166647E-4</v>
+        <v>1.1722365180395736E-5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>9.494844979078077E-5</v>
+        <v>9.562628106232567E-6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D154" t="n">
-        <v>8.113947309794828E-5</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>212</v>
-      </c>
-      <c r="B155" t="s">
-        <v>215</v>
-      </c>
-      <c r="C155" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.917991979791583E-5</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>216</v>
-      </c>
-      <c r="B156" t="s">
-        <v>217</v>
-      </c>
-      <c r="C156" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5.88479707290759E-5</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>216</v>
-      </c>
-      <c r="B157" t="s">
-        <v>218</v>
-      </c>
-      <c r="C157" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" t="n">
-        <v>4.994436493014454E-5</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>219</v>
-      </c>
-      <c r="B158" t="s">
-        <v>220</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" t="n">
-        <v>4.229071864732969E-5</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>219</v>
-      </c>
-      <c r="B159" t="s">
-        <v>221</v>
-      </c>
-      <c r="C159" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>3.5727876249799627E-5</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>219</v>
-      </c>
-      <c r="B160" t="s">
-        <v>222</v>
-      </c>
-      <c r="C160" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" t="n">
-        <v>3.0114309118257497E-5</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>223</v>
-      </c>
-      <c r="B161" t="s">
-        <v>224</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" t="n">
-        <v>2.532457541993565E-5</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>223</v>
-      </c>
-      <c r="B162" t="s">
-        <v>225</v>
-      </c>
-      <c r="C162" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2.1247850796531352E-5</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>226</v>
-      </c>
-      <c r="B163" t="s">
-        <v>227</v>
-      </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.778653738319939E-5</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>226</v>
-      </c>
-      <c r="B164" t="s">
-        <v>228</v>
-      </c>
-      <c r="C164" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.4854956252943654E-5</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>226</v>
-      </c>
-      <c r="B165" t="s">
-        <v>229</v>
-      </c>
-      <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.2378126340334342E-5</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>230</v>
-      </c>
-      <c r="B166" t="s">
-        <v>231</v>
-      </c>
-      <c r="C166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.0290631134931384E-5</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>230</v>
-      </c>
-      <c r="B167" t="s">
-        <v>232</v>
-      </c>
-      <c r="C167" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>8.535572936426511E-6</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>230</v>
-      </c>
-      <c r="B168" t="s">
-        <v>233</v>
-      </c>
-      <c r="C168" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>7.0636132152774285E-6</v>
+        <v>7.77950919656021E-6</v>
       </c>
     </row>
   </sheetData>
